--- a/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_21_40.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_21_40.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3606810.08824878</v>
+        <v>3599616.594447463</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>11372663.21430633</v>
+        <v>10819839.43620937</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1274158.46938117</v>
+        <v>881630.0194036077</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7222727.235680616</v>
+        <v>7410776.027388523</v>
       </c>
     </row>
     <row r="11">
@@ -1381,13 +1381,13 @@
         <v>334.9552334536692</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>359.9009091231189</v>
       </c>
       <c r="G11" t="n">
         <v>363.9465890348609</v>
       </c>
       <c r="H11" t="n">
-        <v>247.6326277687279</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>62.21262516958326</v>
+        <v>62.2126251695833</v>
       </c>
       <c r="T11" t="n">
         <v>156.9428335210276</v>
@@ -1429,13 +1429,13 @@
         <v>204.0200353403094</v>
       </c>
       <c r="V11" t="n">
-        <v>233.0096925403081</v>
+        <v>280.7771218515423</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>162.720253394252</v>
       </c>
       <c r="X11" t="n">
-        <v>322.7559640598765</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>339.262802037461</v>
@@ -1466,10 +1466,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H12" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S12" t="n">
         <v>128.1435076414547</v>
@@ -1530,25 +1530,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C13" t="n">
-        <v>120.2716844800352</v>
+        <v>120.2716844800353</v>
       </c>
       <c r="D13" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E13" t="n">
-        <v>99.45882602797658</v>
+        <v>99.45882602797663</v>
       </c>
       <c r="F13" t="n">
-        <v>98.44591140433866</v>
+        <v>98.4459114043387</v>
       </c>
       <c r="G13" t="n">
-        <v>119.0506716404356</v>
+        <v>119.0506716404357</v>
       </c>
       <c r="H13" t="n">
-        <v>97.7798782957282</v>
+        <v>97.77987829572824</v>
       </c>
       <c r="I13" t="n">
-        <v>49.37728379124554</v>
+        <v>49.3772837912456</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,16 +1575,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>41.95701605145478</v>
+        <v>41.95701605145477</v>
       </c>
       <c r="S13" t="n">
-        <v>142.7938887128493</v>
+        <v>142.7938887128497</v>
       </c>
       <c r="T13" t="n">
         <v>172.5738126575766</v>
       </c>
       <c r="U13" t="n">
-        <v>239.2367015870202</v>
+        <v>239.2367015870204</v>
       </c>
       <c r="V13" t="n">
         <v>205.1625067052354</v>
@@ -1624,7 +1624,7 @@
         <v>363.9465890348609</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>247.6326277687279</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1660,16 +1660,16 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>156.9428335210276</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>84.70823959698831</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>302.2658320988205</v>
+        <v>296.2842774481097</v>
       </c>
       <c r="X14" t="n">
         <v>322.7559640598765</v>
@@ -1703,10 +1703,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H15" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1767,25 +1767,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C16" t="n">
-        <v>120.2716844800352</v>
+        <v>120.2716844800353</v>
       </c>
       <c r="D16" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E16" t="n">
-        <v>99.45882602797658</v>
+        <v>99.45882602797663</v>
       </c>
       <c r="F16" t="n">
-        <v>98.44591140433866</v>
+        <v>98.4459114043387</v>
       </c>
       <c r="G16" t="n">
-        <v>119.0506716404356</v>
+        <v>119.0506716404357</v>
       </c>
       <c r="H16" t="n">
-        <v>97.7798782957282</v>
+        <v>97.77987829572824</v>
       </c>
       <c r="I16" t="n">
-        <v>49.37728379124552</v>
+        <v>49.37728379124555</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>41.95701605145476</v>
+        <v>41.95701605145477</v>
       </c>
       <c r="S16" t="n">
         <v>142.7938887128493</v>
@@ -1843,25 +1843,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>335.758705044888</v>
+        <v>288.7835684262955</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>271.3226185338225</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>260.7327683834978</v>
       </c>
       <c r="E17" t="n">
-        <v>334.9552334536692</v>
+        <v>287.9800968350767</v>
       </c>
       <c r="F17" t="n">
-        <v>275.972398744451</v>
+        <v>312.9257725045263</v>
       </c>
       <c r="G17" t="n">
-        <v>363.9465890348609</v>
+        <v>316.9714524162683</v>
       </c>
       <c r="H17" t="n">
-        <v>247.6326277687279</v>
+        <v>200.6574911501354</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,25 +1894,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>62.21262516958325</v>
+        <v>15.23748855099075</v>
       </c>
       <c r="T17" t="n">
-        <v>156.9428335210276</v>
+        <v>109.9676969024351</v>
       </c>
       <c r="U17" t="n">
-        <v>204.0200353403094</v>
+        <v>104.7626408488382</v>
       </c>
       <c r="V17" t="n">
-        <v>280.7771218515423</v>
+        <v>233.8019852329498</v>
       </c>
       <c r="W17" t="n">
-        <v>302.2658320988205</v>
+        <v>255.2906954802279</v>
       </c>
       <c r="X17" t="n">
-        <v>322.7559640598765</v>
+        <v>275.7808274412839</v>
       </c>
       <c r="Y17" t="n">
-        <v>339.262802037461</v>
+        <v>292.2876654188685</v>
       </c>
     </row>
     <row r="18">
@@ -2001,28 +2001,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>132.8568435633447</v>
+        <v>85.88170694475221</v>
       </c>
       <c r="C19" t="n">
-        <v>120.2716844800352</v>
+        <v>73.29654786144275</v>
       </c>
       <c r="D19" t="n">
-        <v>101.6403363996198</v>
+        <v>54.66519978102727</v>
       </c>
       <c r="E19" t="n">
-        <v>99.45882602797658</v>
+        <v>52.48368940938408</v>
       </c>
       <c r="F19" t="n">
-        <v>98.44591140433866</v>
+        <v>53.93109596828829</v>
       </c>
       <c r="G19" t="n">
-        <v>119.0506716404356</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
-        <v>97.7798782957282</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
-        <v>49.37728379124551</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,28 +2049,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>41.95701605145474</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>142.7938887128493</v>
+        <v>95.81875209425681</v>
       </c>
       <c r="T19" t="n">
-        <v>172.5738126575766</v>
+        <v>125.5986760389841</v>
       </c>
       <c r="U19" t="n">
-        <v>239.2367015870203</v>
+        <v>192.2615649684278</v>
       </c>
       <c r="V19" t="n">
-        <v>205.1625067052354</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>239.5478617179984</v>
+        <v>192.5727250994059</v>
       </c>
       <c r="X19" t="n">
-        <v>178.7345187704446</v>
+        <v>131.7593821518521</v>
       </c>
       <c r="Y19" t="n">
-        <v>171.6095167335022</v>
+        <v>124.6343801149097</v>
       </c>
     </row>
     <row r="20">
@@ -2080,25 +2080,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>288.7835684262955</v>
       </c>
       <c r="C20" t="n">
-        <v>318.297755152415</v>
+        <v>271.3226185338225</v>
       </c>
       <c r="D20" t="n">
-        <v>307.7079050020904</v>
+        <v>260.7327683834978</v>
       </c>
       <c r="E20" t="n">
-        <v>334.9552334536692</v>
+        <v>287.9800968350767</v>
       </c>
       <c r="F20" t="n">
-        <v>359.9009091231189</v>
+        <v>312.9257725045263</v>
       </c>
       <c r="G20" t="n">
-        <v>363.9465890348609</v>
+        <v>316.9714524162683</v>
       </c>
       <c r="H20" t="n">
-        <v>247.6326277687279</v>
+        <v>200.6574911501354</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,25 +2131,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>62.21262516958325</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>156.9428335210276</v>
+        <v>72.92292758054714</v>
       </c>
       <c r="U20" t="n">
-        <v>204.0200353403094</v>
+        <v>157.0448987217169</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>233.8019852329498</v>
       </c>
       <c r="W20" t="n">
-        <v>302.2658320988205</v>
+        <v>255.2906954802279</v>
       </c>
       <c r="X20" t="n">
-        <v>229.3576204231337</v>
+        <v>275.7808274412839</v>
       </c>
       <c r="Y20" t="n">
-        <v>339.262802037461</v>
+        <v>292.2876654188685</v>
       </c>
     </row>
     <row r="21">
@@ -2180,7 +2180,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2207,10 +2207,10 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734107401</v>
       </c>
       <c r="S21" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T21" t="n">
         <v>190.7165703189231</v>
@@ -2238,28 +2238,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>132.8568435633447</v>
+        <v>85.88170694475221</v>
       </c>
       <c r="C22" t="n">
-        <v>120.2716844800352</v>
+        <v>73.29654786144275</v>
       </c>
       <c r="D22" t="n">
-        <v>101.6403363996198</v>
+        <v>54.66519978102727</v>
       </c>
       <c r="E22" t="n">
-        <v>99.45882602797658</v>
+        <v>52.48368940938408</v>
       </c>
       <c r="F22" t="n">
-        <v>98.44591140433866</v>
+        <v>51.47077478574616</v>
       </c>
       <c r="G22" t="n">
-        <v>119.0506716404356</v>
+        <v>72.07553502184314</v>
       </c>
       <c r="H22" t="n">
-        <v>97.7798782957282</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
-        <v>49.37728379124551</v>
+        <v>2.402147172652995</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,28 +2286,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>41.95701605145474</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S22" t="n">
-        <v>142.7938887128493</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
-        <v>172.5738126575766</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
-        <v>239.2367015870203</v>
+        <v>199.7400067181079</v>
       </c>
       <c r="V22" t="n">
-        <v>205.1625067052354</v>
+        <v>158.1873700866429</v>
       </c>
       <c r="W22" t="n">
-        <v>239.5478617179984</v>
+        <v>192.5727250994059</v>
       </c>
       <c r="X22" t="n">
-        <v>178.7345187704446</v>
+        <v>131.7593821518521</v>
       </c>
       <c r="Y22" t="n">
-        <v>171.6095167335022</v>
+        <v>124.6343801149097</v>
       </c>
     </row>
     <row r="23">
@@ -2317,25 +2317,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>335.758705044888</v>
+        <v>288.7835684262955</v>
       </c>
       <c r="C23" t="n">
-        <v>318.297755152415</v>
+        <v>271.3226185338225</v>
       </c>
       <c r="D23" t="n">
-        <v>307.7079050020904</v>
+        <v>260.7327683834978</v>
       </c>
       <c r="E23" t="n">
-        <v>334.9552334536692</v>
+        <v>287.9800968350767</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>312.9257725045263</v>
       </c>
       <c r="G23" t="n">
-        <v>363.9465890348609</v>
+        <v>316.9714524162683</v>
       </c>
       <c r="H23" t="n">
-        <v>247.6326277687279</v>
+        <v>200.6574911501354</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2368,25 +2368,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>62.21262516958325</v>
+        <v>15.2374885509905</v>
       </c>
       <c r="T23" t="n">
-        <v>156.9428335210276</v>
+        <v>109.9676969024351</v>
       </c>
       <c r="U23" t="n">
-        <v>204.0200353403094</v>
+        <v>157.044898721717</v>
       </c>
       <c r="V23" t="n">
-        <v>280.7771218515423</v>
+        <v>233.8019852329498</v>
       </c>
       <c r="W23" t="n">
-        <v>4.514828561644194</v>
+        <v>255.2906954802279</v>
       </c>
       <c r="X23" t="n">
-        <v>322.7559640598765</v>
+        <v>275.7808274412839</v>
       </c>
       <c r="Y23" t="n">
-        <v>339.262802037461</v>
+        <v>292.2876654188685</v>
       </c>
     </row>
     <row r="24">
@@ -2417,7 +2417,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I24" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2444,10 +2444,10 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734102899</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S24" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T24" t="n">
         <v>190.7165703189231</v>
@@ -2475,28 +2475,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>132.8568435633447</v>
+        <v>85.88170694475221</v>
       </c>
       <c r="C25" t="n">
-        <v>120.2716844800352</v>
+        <v>73.29654786144275</v>
       </c>
       <c r="D25" t="n">
-        <v>101.6403363996198</v>
+        <v>54.66519978102727</v>
       </c>
       <c r="E25" t="n">
-        <v>99.45882602797658</v>
+        <v>52.48368940938408</v>
       </c>
       <c r="F25" t="n">
-        <v>98.44591140433866</v>
+        <v>51.47077478574616</v>
       </c>
       <c r="G25" t="n">
-        <v>119.0506716404356</v>
+        <v>74.53585620438628</v>
       </c>
       <c r="H25" t="n">
-        <v>97.7798782957282</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
-        <v>49.37728379124551</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,28 +2523,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>41.95701605145474</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>142.7938887128493</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
-        <v>172.5738126575766</v>
+        <v>125.5986760389841</v>
       </c>
       <c r="U25" t="n">
-        <v>239.2367015870203</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V25" t="n">
-        <v>205.1625067052354</v>
+        <v>158.1873700866429</v>
       </c>
       <c r="W25" t="n">
-        <v>239.5478617179984</v>
+        <v>192.5727250994059</v>
       </c>
       <c r="X25" t="n">
-        <v>178.7345187704446</v>
+        <v>131.7593821518521</v>
       </c>
       <c r="Y25" t="n">
-        <v>171.6095167335022</v>
+        <v>124.6343801149097</v>
       </c>
     </row>
     <row r="26">
@@ -2563,16 +2563,16 @@
         <v>307.7079050020904</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>334.9552334536692</v>
       </c>
       <c r="F26" t="n">
         <v>359.9009091231189</v>
       </c>
       <c r="G26" t="n">
-        <v>363.9465890348609</v>
+        <v>363.9465890348615</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>247.6326277687279</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2617,7 +2617,7 @@
         <v>280.7771218515423</v>
       </c>
       <c r="W26" t="n">
-        <v>227.2017806609225</v>
+        <v>302.2658320988205</v>
       </c>
       <c r="X26" t="n">
         <v>322.7559640598765</v>
@@ -2681,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S27" t="n">
         <v>128.1435076414547</v>
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>132.8568435633447</v>
+        <v>132.8568435633448</v>
       </c>
       <c r="C28" t="n">
         <v>120.2716844800353</v>
@@ -2721,16 +2721,16 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E28" t="n">
-        <v>99.45882602797663</v>
+        <v>99.45882602797664</v>
       </c>
       <c r="F28" t="n">
-        <v>98.4459114043387</v>
+        <v>98.44591140433872</v>
       </c>
       <c r="G28" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H28" t="n">
-        <v>97.77987829572824</v>
+        <v>97.77987829572825</v>
       </c>
       <c r="I28" t="n">
         <v>49.37728379124555</v>
@@ -2760,28 +2760,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>41.95701605145477</v>
+        <v>41.9570160514543</v>
       </c>
       <c r="S28" t="n">
-        <v>142.7938887128493</v>
+        <v>142.7938887128494</v>
       </c>
       <c r="T28" t="n">
-        <v>172.5738126575766</v>
+        <v>172.5738126575767</v>
       </c>
       <c r="U28" t="n">
         <v>239.2367015870203</v>
       </c>
       <c r="V28" t="n">
-        <v>205.1625067052354</v>
+        <v>205.1625067052355</v>
       </c>
       <c r="W28" t="n">
-        <v>239.5478617179984</v>
+        <v>239.5478617179985</v>
       </c>
       <c r="X28" t="n">
         <v>178.7345187704446</v>
       </c>
       <c r="Y28" t="n">
-        <v>171.6095167335022</v>
+        <v>171.6095167335023</v>
       </c>
     </row>
     <row r="29">
@@ -2794,22 +2794,22 @@
         <v>335.758705044888</v>
       </c>
       <c r="C29" t="n">
-        <v>318.297755152415</v>
+        <v>318.2977551524149</v>
       </c>
       <c r="D29" t="n">
-        <v>307.7079050020904</v>
+        <v>307.7079050020903</v>
       </c>
       <c r="E29" t="n">
         <v>334.9552334536692</v>
       </c>
       <c r="F29" t="n">
-        <v>359.9009091231189</v>
+        <v>359.9009091231188</v>
       </c>
       <c r="G29" t="n">
-        <v>363.9465890348609</v>
+        <v>363.9465890348608</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>247.6326277687278</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2842,10 +2842,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>62.2126251695833</v>
+        <v>62.2126251695846</v>
       </c>
       <c r="T29" t="n">
-        <v>156.9428335210276</v>
+        <v>156.9428335210275</v>
       </c>
       <c r="U29" t="n">
         <v>204.0200353403094</v>
@@ -2854,10 +2854,10 @@
         <v>280.7771218515423</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>302.2658320988204</v>
       </c>
       <c r="X29" t="n">
-        <v>215.0025112671294</v>
+        <v>322.7559640598764</v>
       </c>
       <c r="Y29" t="n">
         <v>339.262802037461</v>
@@ -2918,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734102899</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S30" t="n">
         <v>128.1435076414547</v>
@@ -2949,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>132.8568435633448</v>
+        <v>132.8568435633447</v>
       </c>
       <c r="C31" t="n">
-        <v>120.2716844800353</v>
+        <v>120.2716844800352</v>
       </c>
       <c r="D31" t="n">
-        <v>101.6403363996198</v>
+        <v>101.6403363996197</v>
       </c>
       <c r="E31" t="n">
-        <v>99.45882602797664</v>
+        <v>99.45882602797656</v>
       </c>
       <c r="F31" t="n">
-        <v>98.44591140433872</v>
+        <v>98.44591140433863</v>
       </c>
       <c r="G31" t="n">
-        <v>119.0506716404357</v>
+        <v>119.0506716404356</v>
       </c>
       <c r="H31" t="n">
-        <v>97.77987829572825</v>
+        <v>97.77987829572817</v>
       </c>
       <c r="I31" t="n">
-        <v>49.37728379124557</v>
+        <v>49.37728379124548</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,28 +2997,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>41.95701605145479</v>
+        <v>41.95701605145472</v>
       </c>
       <c r="S31" t="n">
-        <v>142.7938887128494</v>
+        <v>142.7938887128493</v>
       </c>
       <c r="T31" t="n">
-        <v>172.5738126575767</v>
+        <v>172.5738126575766</v>
       </c>
       <c r="U31" t="n">
-        <v>239.2367015870196</v>
+        <v>239.2367015870204</v>
       </c>
       <c r="V31" t="n">
-        <v>205.1625067052355</v>
+        <v>205.1625067052354</v>
       </c>
       <c r="W31" t="n">
-        <v>239.5478617179985</v>
+        <v>239.5478617179984</v>
       </c>
       <c r="X31" t="n">
-        <v>178.7345187704446</v>
+        <v>178.7345187704445</v>
       </c>
       <c r="Y31" t="n">
-        <v>171.6095167335023</v>
+        <v>171.6095167335022</v>
       </c>
     </row>
     <row r="32">
@@ -3028,25 +3028,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>288.7835684262955</v>
+        <v>335.758705044888</v>
       </c>
       <c r="C32" t="n">
-        <v>271.3226185338224</v>
+        <v>318.297755152415</v>
       </c>
       <c r="D32" t="n">
-        <v>260.7327683834978</v>
+        <v>307.7079050020904</v>
       </c>
       <c r="E32" t="n">
-        <v>287.9800968350767</v>
+        <v>334.9552334536692</v>
       </c>
       <c r="F32" t="n">
-        <v>312.9257725045263</v>
+        <v>359.9009091231189</v>
       </c>
       <c r="G32" t="n">
-        <v>316.9714524162683</v>
+        <v>363.9465890348609</v>
       </c>
       <c r="H32" t="n">
-        <v>200.6574911501353</v>
+        <v>247.6326277687279</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3079,25 +3079,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>15.2374885509905</v>
+        <v>62.21262516958328</v>
       </c>
       <c r="T32" t="n">
-        <v>109.967696902435</v>
+        <v>156.9428335210278</v>
       </c>
       <c r="U32" t="n">
-        <v>157.044898721717</v>
+        <v>204.0200353403093</v>
       </c>
       <c r="V32" t="n">
-        <v>233.8019852329498</v>
+        <v>280.7771218515423</v>
       </c>
       <c r="W32" t="n">
-        <v>255.2906954802279</v>
+        <v>302.2658320988205</v>
       </c>
       <c r="X32" t="n">
-        <v>275.7808274412839</v>
+        <v>322.7559640598765</v>
       </c>
       <c r="Y32" t="n">
-        <v>292.2876654188685</v>
+        <v>339.262802037461</v>
       </c>
     </row>
     <row r="33">
@@ -3128,7 +3128,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I33" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247751</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3155,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734102899</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S33" t="n">
         <v>128.1435076414547</v>
@@ -3186,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>85.88170694475218</v>
+        <v>132.8568435633447</v>
       </c>
       <c r="C34" t="n">
-        <v>73.29654786144272</v>
+        <v>120.2716844800353</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>101.6403363996198</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F34" t="n">
-        <v>51.47077478574613</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G34" t="n">
-        <v>74.53585620438577</v>
+        <v>119.0506716404357</v>
       </c>
       <c r="H34" t="n">
-        <v>50.80474167713567</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I34" t="n">
-        <v>2.402147172652981</v>
+        <v>49.37728379124554</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,28 +3234,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>41.95701605145477</v>
       </c>
       <c r="S34" t="n">
-        <v>95.81875209425678</v>
+        <v>142.7938887128493</v>
       </c>
       <c r="T34" t="n">
-        <v>125.5986760389841</v>
+        <v>172.5738126575766</v>
       </c>
       <c r="U34" t="n">
-        <v>192.2615649684277</v>
+        <v>239.2367015870203</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>205.1625067052354</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>239.5478617179984</v>
       </c>
       <c r="X34" t="n">
-        <v>131.759382151852</v>
+        <v>178.7345187704446</v>
       </c>
       <c r="Y34" t="n">
-        <v>124.6343801149097</v>
+        <v>171.6095167335022</v>
       </c>
     </row>
     <row r="35">
@@ -3265,25 +3265,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>288.7835684262955</v>
+        <v>335.758705044888</v>
       </c>
       <c r="C35" t="n">
-        <v>271.3226185338224</v>
+        <v>318.297755152415</v>
       </c>
       <c r="D35" t="n">
-        <v>260.7327683834978</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>287.9800968350767</v>
+        <v>334.9552334536692</v>
       </c>
       <c r="F35" t="n">
-        <v>312.9257725045263</v>
+        <v>359.9009091231189</v>
       </c>
       <c r="G35" t="n">
-        <v>316.9714524162683</v>
+        <v>363.9465890348609</v>
       </c>
       <c r="H35" t="n">
-        <v>200.6574911501353</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3316,25 +3316,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>62.21262516958328</v>
       </c>
       <c r="T35" t="n">
-        <v>72.92292758054759</v>
+        <v>156.9428335210276</v>
       </c>
       <c r="U35" t="n">
-        <v>157.0448987217169</v>
+        <v>204.0200353403094</v>
       </c>
       <c r="V35" t="n">
-        <v>233.8019852329498</v>
+        <v>280.7771218515423</v>
       </c>
       <c r="W35" t="n">
-        <v>255.2906954802279</v>
+        <v>302.2658320988205</v>
       </c>
       <c r="X35" t="n">
-        <v>275.7808274412839</v>
+        <v>168.1623262975222</v>
       </c>
       <c r="Y35" t="n">
-        <v>292.2876654188685</v>
+        <v>339.262802037461</v>
       </c>
     </row>
     <row r="36">
@@ -3392,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S36" t="n">
         <v>128.1435076414547</v>
@@ -3423,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>132.8568435633447</v>
       </c>
       <c r="C37" t="n">
-        <v>73.29654786144272</v>
+        <v>120.2716844800353</v>
       </c>
       <c r="D37" t="n">
-        <v>54.66519978102724</v>
+        <v>101.6403363996198</v>
       </c>
       <c r="E37" t="n">
-        <v>52.48368940938406</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F37" t="n">
-        <v>51.47077478574613</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G37" t="n">
-        <v>72.07553502184311</v>
+        <v>119.0506716404357</v>
       </c>
       <c r="H37" t="n">
-        <v>50.80474167713567</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I37" t="n">
-        <v>2.402147172652981</v>
+        <v>49.37728379124554</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,28 +3471,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>41.95701605145477</v>
       </c>
       <c r="S37" t="n">
-        <v>98.27907327679929</v>
+        <v>142.7938887128493</v>
       </c>
       <c r="T37" t="n">
-        <v>125.5986760389841</v>
+        <v>172.5738126575766</v>
       </c>
       <c r="U37" t="n">
-        <v>192.2615649684277</v>
+        <v>239.2367015870203</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>205.1625067052354</v>
       </c>
       <c r="W37" t="n">
-        <v>192.5727250994059</v>
+        <v>239.5478617179984</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>178.7345187704446</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>171.6095167335022</v>
       </c>
     </row>
     <row r="38">
@@ -3502,25 +3502,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>288.7835684262955</v>
+        <v>335.758705044888</v>
       </c>
       <c r="C38" t="n">
-        <v>271.3226185338224</v>
+        <v>318.297755152415</v>
       </c>
       <c r="D38" t="n">
-        <v>260.7327683834978</v>
+        <v>242.497445355321</v>
       </c>
       <c r="E38" t="n">
-        <v>235.6978389621995</v>
+        <v>334.9552334536692</v>
       </c>
       <c r="F38" t="n">
-        <v>312.9257725045263</v>
+        <v>359.9009091231189</v>
       </c>
       <c r="G38" t="n">
-        <v>316.9714524162683</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>200.6574911501353</v>
+        <v>247.6326277687279</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3553,25 +3553,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>15.23748855099072</v>
+        <v>62.21262516958328</v>
       </c>
       <c r="T38" t="n">
-        <v>109.967696902435</v>
+        <v>156.9428335210276</v>
       </c>
       <c r="U38" t="n">
-        <v>157.0448987217169</v>
+        <v>204.0200353403094</v>
       </c>
       <c r="V38" t="n">
-        <v>233.8019852329498</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>255.2906954802279</v>
+        <v>302.2658320988205</v>
       </c>
       <c r="X38" t="n">
-        <v>275.7808274412839</v>
+        <v>322.7559640598765</v>
       </c>
       <c r="Y38" t="n">
-        <v>292.2876654188685</v>
+        <v>339.262802037461</v>
       </c>
     </row>
     <row r="39">
@@ -3660,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>85.88170694475218</v>
+        <v>132.8568435633447</v>
       </c>
       <c r="C40" t="n">
-        <v>73.29654786144272</v>
+        <v>120.2716844800353</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>101.6403363996198</v>
       </c>
       <c r="E40" t="n">
-        <v>52.48368940938406</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F40" t="n">
-        <v>51.47077478574613</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G40" t="n">
-        <v>72.07553502184311</v>
+        <v>119.0506716404357</v>
       </c>
       <c r="H40" t="n">
-        <v>144.7550149143208</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I40" t="n">
-        <v>2.402147172652981</v>
+        <v>49.37728379124552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,28 +3708,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>88.93215267004733</v>
+        <v>41.95701605145477</v>
       </c>
       <c r="S40" t="n">
-        <v>95.81875209425678</v>
+        <v>142.7938887128493</v>
       </c>
       <c r="T40" t="n">
-        <v>125.5986760389841</v>
+        <v>172.5738126575766</v>
       </c>
       <c r="U40" t="n">
-        <v>199.7400067181083</v>
+        <v>239.2367015870203</v>
       </c>
       <c r="V40" t="n">
-        <v>158.1873700866429</v>
+        <v>205.1625067052354</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>239.5478617179984</v>
       </c>
       <c r="X40" t="n">
-        <v>131.759382151852</v>
+        <v>178.7345187704446</v>
       </c>
       <c r="Y40" t="n">
-        <v>124.6343801149097</v>
+        <v>171.6095167335022</v>
       </c>
     </row>
     <row r="41">
@@ -3742,7 +3742,7 @@
         <v>335.758705044888</v>
       </c>
       <c r="C41" t="n">
-        <v>318.297755152415</v>
+        <v>220.4746696563739</v>
       </c>
       <c r="D41" t="n">
         <v>307.7079050020904</v>
@@ -3757,7 +3757,7 @@
         <v>363.9465890348609</v>
       </c>
       <c r="H41" t="n">
-        <v>247.6326277687279</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3793,19 +3793,19 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>156.9428335210276</v>
       </c>
       <c r="U41" t="n">
-        <v>35.9972875576233</v>
+        <v>204.0200353403094</v>
       </c>
       <c r="V41" t="n">
         <v>280.7771218515423</v>
       </c>
       <c r="W41" t="n">
-        <v>302.2658320988205</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>322.7559640598765</v>
       </c>
       <c r="Y41" t="n">
         <v>339.262802037461</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S42" t="n">
         <v>128.1435076414547</v>
@@ -3900,25 +3900,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C43" t="n">
-        <v>120.2716844800353</v>
+        <v>120.2716844800352</v>
       </c>
       <c r="D43" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E43" t="n">
-        <v>99.45882602797661</v>
+        <v>99.45882602797658</v>
       </c>
       <c r="F43" t="n">
-        <v>98.44591140433869</v>
+        <v>98.44591140433866</v>
       </c>
       <c r="G43" t="n">
-        <v>119.0506716404357</v>
+        <v>119.0506716404356</v>
       </c>
       <c r="H43" t="n">
-        <v>97.77987829572822</v>
+        <v>97.7798782957282</v>
       </c>
       <c r="I43" t="n">
-        <v>49.37728379124552</v>
+        <v>49.37728379124551</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.95701605145477</v>
+        <v>41.95701605145474</v>
       </c>
       <c r="S43" t="n">
         <v>142.7938887128493</v>
@@ -3954,7 +3954,7 @@
         <v>172.5738126575766</v>
       </c>
       <c r="U43" t="n">
-        <v>239.2367015870204</v>
+        <v>239.2367015870207</v>
       </c>
       <c r="V43" t="n">
         <v>205.1625067052354</v>
@@ -3976,25 +3976,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>335.758705044888</v>
+        <v>335.7587050448881</v>
       </c>
       <c r="C44" t="n">
         <v>318.297755152415</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>307.7079050020905</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>334.9552334536693</v>
       </c>
       <c r="F44" t="n">
-        <v>359.9009091231189</v>
+        <v>13.91332762480643</v>
       </c>
       <c r="G44" t="n">
-        <v>363.9465890348609</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>247.6326277687279</v>
+        <v>247.632627768728</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4027,16 +4027,16 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>62.21262516958328</v>
+        <v>62.21262516958333</v>
       </c>
       <c r="T44" t="n">
         <v>156.9428335210276</v>
       </c>
       <c r="U44" t="n">
-        <v>204.0200353403094</v>
+        <v>204.0200353403095</v>
       </c>
       <c r="V44" t="n">
-        <v>213.5060897741285</v>
+        <v>280.7771218515424</v>
       </c>
       <c r="W44" t="n">
         <v>302.2658320988205</v>
@@ -4045,7 +4045,7 @@
         <v>322.7559640598765</v>
       </c>
       <c r="Y44" t="n">
-        <v>339.262802037461</v>
+        <v>339.2628020374611</v>
       </c>
     </row>
     <row r="45">
@@ -4103,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S45" t="n">
         <v>128.1435076414547</v>
@@ -4134,28 +4134,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>132.8568435633447</v>
+        <v>132.8568435633448</v>
       </c>
       <c r="C46" t="n">
         <v>120.2716844800353</v>
       </c>
       <c r="D46" t="n">
-        <v>101.6403363996198</v>
+        <v>101.6403363996199</v>
       </c>
       <c r="E46" t="n">
-        <v>99.45882602797715</v>
+        <v>99.45882602797667</v>
       </c>
       <c r="F46" t="n">
-        <v>98.44591140433869</v>
+        <v>98.44591140433874</v>
       </c>
       <c r="G46" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H46" t="n">
-        <v>97.77987829572822</v>
+        <v>97.77987829572828</v>
       </c>
       <c r="I46" t="n">
-        <v>49.37728379124554</v>
+        <v>49.37728379124438</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,28 +4182,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.95701605145477</v>
+        <v>41.95701605145483</v>
       </c>
       <c r="S46" t="n">
-        <v>142.7938887128493</v>
+        <v>142.7938887128494</v>
       </c>
       <c r="T46" t="n">
-        <v>172.5738126575766</v>
+        <v>172.5738126575767</v>
       </c>
       <c r="U46" t="n">
         <v>239.2367015870203</v>
       </c>
       <c r="V46" t="n">
-        <v>205.1625067052354</v>
+        <v>205.1625067052355</v>
       </c>
       <c r="W46" t="n">
-        <v>239.5478617179984</v>
+        <v>239.5478617179985</v>
       </c>
       <c r="X46" t="n">
-        <v>178.7345187704446</v>
+        <v>178.7345187704447</v>
       </c>
       <c r="Y46" t="n">
-        <v>171.6095167335022</v>
+        <v>171.6095167335023</v>
       </c>
     </row>
   </sheetData>
@@ -5017,34 +5017,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1654.93647038346</v>
+        <v>1768.338774781834</v>
       </c>
       <c r="C11" t="n">
-        <v>1333.423586391121</v>
+        <v>1446.825890789496</v>
       </c>
       <c r="D11" t="n">
-        <v>1022.607520732444</v>
+        <v>1136.009825130819</v>
       </c>
       <c r="E11" t="n">
-        <v>684.2689010822733</v>
+        <v>797.6712054806479</v>
       </c>
       <c r="F11" t="n">
-        <v>684.2689010822733</v>
+        <v>434.1349336391137</v>
       </c>
       <c r="G11" t="n">
-        <v>316.646083875343</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H11" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I11" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J11" t="n">
         <v>255.3912473912096</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810566</v>
       </c>
       <c r="L11" t="n">
         <v>1040.244834329465</v>
@@ -5059,34 +5059,34 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P11" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q11" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R11" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S11" t="n">
-        <v>3262.764786084339</v>
+        <v>3262.76478608434</v>
       </c>
       <c r="T11" t="n">
-        <v>3104.236671416634</v>
+        <v>3104.236671416635</v>
       </c>
       <c r="U11" t="n">
-        <v>2898.155827638544</v>
+        <v>2898.155827638545</v>
       </c>
       <c r="V11" t="n">
-        <v>2662.792501840253</v>
+        <v>2614.542573243048</v>
       </c>
       <c r="W11" t="n">
-        <v>2662.792501840253</v>
+        <v>2450.178680925621</v>
       </c>
       <c r="X11" t="n">
-        <v>2336.776376527247</v>
+        <v>2450.178680925621</v>
       </c>
       <c r="Y11" t="n">
-        <v>1994.086677499508</v>
+        <v>2107.488981897883</v>
       </c>
     </row>
     <row r="12">
@@ -5117,16 +5117,16 @@
         <v>85.51940803064548</v>
       </c>
       <c r="I12" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J12" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L12" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M12" t="n">
         <v>1212.428070438129</v>
@@ -5138,10 +5138,10 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P12" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q12" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R12" t="n">
         <v>2564.909189125856</v>
@@ -5175,31 +5175,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>759.4662498052942</v>
+        <v>759.4662498052944</v>
       </c>
       <c r="C13" t="n">
-        <v>637.9796998254606</v>
+        <v>637.9796998254608</v>
       </c>
       <c r="D13" t="n">
-        <v>535.3126933611982</v>
+        <v>535.3126933611984</v>
       </c>
       <c r="E13" t="n">
-        <v>434.8492327268784</v>
+        <v>434.8492327268786</v>
       </c>
       <c r="F13" t="n">
-        <v>335.4089181770414</v>
+        <v>335.4089181770415</v>
       </c>
       <c r="G13" t="n">
-        <v>215.1557144998337</v>
+        <v>215.1557144998338</v>
       </c>
       <c r="H13" t="n">
         <v>116.3881606657648</v>
       </c>
       <c r="I13" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J13" t="n">
-        <v>158.1401341315256</v>
+        <v>158.1401341315255</v>
       </c>
       <c r="K13" t="n">
         <v>408.6327023328085</v>
@@ -5220,13 +5220,13 @@
         <v>2175.221948702824</v>
       </c>
       <c r="Q13" t="n">
-        <v>2299.337630107745</v>
+        <v>2299.337630107746</v>
       </c>
       <c r="R13" t="n">
-        <v>2256.956805813346</v>
+        <v>2256.956805813347</v>
       </c>
       <c r="S13" t="n">
-        <v>2112.720554588246</v>
+        <v>2112.720554588247</v>
       </c>
       <c r="T13" t="n">
         <v>1938.403572105846</v>
@@ -5244,7 +5244,7 @@
         <v>1067.008027882918</v>
       </c>
       <c r="Y13" t="n">
-        <v>893.6650816874605</v>
+        <v>893.6650816874608</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1768.338774781834</v>
+        <v>2018.472742224994</v>
       </c>
       <c r="C14" t="n">
-        <v>1446.825890789496</v>
+        <v>1696.959858232656</v>
       </c>
       <c r="D14" t="n">
-        <v>1136.009825130819</v>
+        <v>1386.143792573978</v>
       </c>
       <c r="E14" t="n">
-        <v>797.6712054806478</v>
+        <v>1047.805172923807</v>
       </c>
       <c r="F14" t="n">
-        <v>434.1349336391136</v>
+        <v>684.2689010822731</v>
       </c>
       <c r="G14" t="n">
-        <v>66.51211643218339</v>
+        <v>316.6460838753429</v>
       </c>
       <c r="H14" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I14" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J14" t="n">
         <v>255.3912473912087</v>
       </c>
       <c r="K14" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L14" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M14" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N14" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O14" t="n">
-        <v>2623.528026939506</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P14" t="n">
-        <v>3018.302393296684</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q14" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R14" t="n">
-        <v>3325.605821609169</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S14" t="n">
-        <v>3325.605821609169</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T14" t="n">
-        <v>3167.077706941464</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U14" t="n">
-        <v>3167.077706941464</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V14" t="n">
-        <v>3081.513828560668</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="W14" t="n">
-        <v>2776.194806238627</v>
+        <v>3026.328773681787</v>
       </c>
       <c r="X14" t="n">
-        <v>2450.178680925621</v>
+        <v>2700.312648368781</v>
       </c>
       <c r="Y14" t="n">
-        <v>2107.488981897883</v>
+        <v>2357.622949341042</v>
       </c>
     </row>
     <row r="15">
@@ -5348,28 +5348,28 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G15" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H15" t="n">
         <v>85.51940803064545</v>
       </c>
       <c r="I15" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J15" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K15" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L15" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M15" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N15" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O15" t="n">
         <v>2096.912393410638</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>759.4662498052941</v>
+        <v>759.4662498052944</v>
       </c>
       <c r="C16" t="n">
-        <v>637.9796998254604</v>
+        <v>637.9796998254608</v>
       </c>
       <c r="D16" t="n">
-        <v>535.3126933611981</v>
+        <v>535.3126933611984</v>
       </c>
       <c r="E16" t="n">
-        <v>434.8492327268783</v>
+        <v>434.8492327268785</v>
       </c>
       <c r="F16" t="n">
-        <v>335.4089181770413</v>
+        <v>335.4089181770415</v>
       </c>
       <c r="G16" t="n">
-        <v>215.1557144998336</v>
+        <v>215.1557144998337</v>
       </c>
       <c r="H16" t="n">
-        <v>116.3881606657647</v>
+        <v>116.3881606657648</v>
       </c>
       <c r="I16" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J16" t="n">
         <v>158.1401341315256</v>
       </c>
       <c r="K16" t="n">
-        <v>408.6327023328078</v>
+        <v>408.6327023328086</v>
       </c>
       <c r="L16" t="n">
-        <v>771.6978860337106</v>
+        <v>771.6978860337115</v>
       </c>
       <c r="M16" t="n">
-        <v>1162.360316885666</v>
+        <v>1162.360316885667</v>
       </c>
       <c r="N16" t="n">
-        <v>1550.274078843937</v>
+        <v>1550.274078843938</v>
       </c>
       <c r="O16" t="n">
-        <v>1896.109063016757</v>
+        <v>1896.109063016758</v>
       </c>
       <c r="P16" t="n">
-        <v>2175.221948702823</v>
+        <v>2175.221948702824</v>
       </c>
       <c r="Q16" t="n">
-        <v>2299.337630107745</v>
+        <v>2299.337630107746</v>
       </c>
       <c r="R16" t="n">
-        <v>2256.956805813346</v>
+        <v>2256.956805813347</v>
       </c>
       <c r="S16" t="n">
-        <v>2112.720554588246</v>
+        <v>2112.720554588247</v>
       </c>
       <c r="T16" t="n">
-        <v>1938.403572105845</v>
+        <v>1938.403572105846</v>
       </c>
       <c r="U16" t="n">
-        <v>1696.750338179562</v>
+        <v>1696.750338179563</v>
       </c>
       <c r="V16" t="n">
         <v>1489.515482921749</v>
       </c>
       <c r="W16" t="n">
-        <v>1247.547945832861</v>
+        <v>1247.547945832862</v>
       </c>
       <c r="X16" t="n">
-        <v>1067.008027882917</v>
+        <v>1067.008027882918</v>
       </c>
       <c r="Y16" t="n">
-        <v>893.6650816874604</v>
+        <v>893.6650816874608</v>
       </c>
     </row>
     <row r="17">
@@ -5491,22 +5491,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1301.367519464213</v>
+        <v>1733.774944536554</v>
       </c>
       <c r="C17" t="n">
-        <v>1301.367519464213</v>
+        <v>1459.711693492289</v>
       </c>
       <c r="D17" t="n">
-        <v>1301.367519464213</v>
+        <v>1196.345260781685</v>
       </c>
       <c r="E17" t="n">
-        <v>963.0288998140419</v>
+        <v>905.4562740795875</v>
       </c>
       <c r="F17" t="n">
-        <v>684.2689010822731</v>
+        <v>589.3696351861265</v>
       </c>
       <c r="G17" t="n">
-        <v>316.6460838753429</v>
+        <v>269.1964509272697</v>
       </c>
       <c r="H17" t="n">
         <v>66.51211643218342</v>
@@ -5542,25 +5542,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S17" t="n">
-        <v>3262.764786084339</v>
+        <v>3310.214419032412</v>
       </c>
       <c r="T17" t="n">
-        <v>3104.236671416635</v>
+        <v>3199.135937312781</v>
       </c>
       <c r="U17" t="n">
-        <v>2898.155827638544</v>
+        <v>3093.31508797052</v>
       </c>
       <c r="V17" t="n">
-        <v>2614.542573243047</v>
+        <v>2857.151466523096</v>
       </c>
       <c r="W17" t="n">
-        <v>2309.223550921006</v>
+        <v>2599.282077149128</v>
       </c>
       <c r="X17" t="n">
-        <v>1983.207425608</v>
+        <v>2320.715584784195</v>
       </c>
       <c r="Y17" t="n">
-        <v>1640.517726580261</v>
+        <v>2025.47551870453</v>
       </c>
     </row>
     <row r="18">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>759.4662498052942</v>
+        <v>714.5017897688799</v>
       </c>
       <c r="C19" t="n">
-        <v>637.9796998254606</v>
+        <v>640.4648727371195</v>
       </c>
       <c r="D19" t="n">
-        <v>535.3126933611982</v>
+        <v>585.2474992209304</v>
       </c>
       <c r="E19" t="n">
-        <v>434.8492327268784</v>
+        <v>532.2336715346838</v>
       </c>
       <c r="F19" t="n">
-        <v>335.4089181770414</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G19" t="n">
-        <v>215.1557144998336</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H19" t="n">
-        <v>116.3881606657647</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I19" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J19" t="n">
-        <v>158.1401341315257</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K19" t="n">
-        <v>408.6327023328075</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L19" t="n">
-        <v>771.6978860337103</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M19" t="n">
-        <v>1162.360316885666</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N19" t="n">
-        <v>1550.274078843937</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O19" t="n">
-        <v>1896.109063016757</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P19" t="n">
-        <v>2175.221948702823</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q19" t="n">
-        <v>2299.337630107745</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R19" t="n">
-        <v>2256.956805813346</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S19" t="n">
-        <v>2112.720554588246</v>
+        <v>1830.507929811466</v>
       </c>
       <c r="T19" t="n">
-        <v>1938.403572105845</v>
+        <v>1703.640580277138</v>
       </c>
       <c r="U19" t="n">
-        <v>1696.750338179562</v>
+        <v>1509.436979298928</v>
       </c>
       <c r="V19" t="n">
-        <v>1489.515482921749</v>
+        <v>1254.752491093041</v>
       </c>
       <c r="W19" t="n">
-        <v>1247.547945832861</v>
+        <v>1060.234586952227</v>
       </c>
       <c r="X19" t="n">
-        <v>1067.008027882917</v>
+        <v>927.1443019503565</v>
       </c>
       <c r="Y19" t="n">
-        <v>893.6650816874605</v>
+        <v>801.250988702973</v>
       </c>
     </row>
     <row r="20">
@@ -5728,22 +5728,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2018.472742224994</v>
+        <v>1733.774944536554</v>
       </c>
       <c r="C20" t="n">
-        <v>1696.959858232656</v>
+        <v>1459.711693492289</v>
       </c>
       <c r="D20" t="n">
-        <v>1386.143792573978</v>
+        <v>1196.345260781685</v>
       </c>
       <c r="E20" t="n">
-        <v>1047.805172923807</v>
+        <v>905.4562740795875</v>
       </c>
       <c r="F20" t="n">
-        <v>684.2689010822731</v>
+        <v>589.3696351861265</v>
       </c>
       <c r="G20" t="n">
-        <v>316.6460838753429</v>
+        <v>269.1964509272697</v>
       </c>
       <c r="H20" t="n">
         <v>66.51211643218342</v>
@@ -5752,16 +5752,16 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J20" t="n">
-        <v>255.3912473912087</v>
+        <v>255.391247391209</v>
       </c>
       <c r="K20" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810547</v>
       </c>
       <c r="L20" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M20" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N20" t="n">
         <v>2120.555556060171</v>
@@ -5779,25 +5779,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S20" t="n">
-        <v>3262.764786084339</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T20" t="n">
-        <v>3104.236671416635</v>
+        <v>3251.946298800538</v>
       </c>
       <c r="U20" t="n">
-        <v>2898.155827638544</v>
+        <v>3093.31508797052</v>
       </c>
       <c r="V20" t="n">
-        <v>2898.155827638544</v>
+        <v>2857.151466523096</v>
       </c>
       <c r="W20" t="n">
-        <v>2592.836805316504</v>
+        <v>2599.282077149128</v>
       </c>
       <c r="X20" t="n">
-        <v>2361.162441252732</v>
+        <v>2320.715584784195</v>
       </c>
       <c r="Y20" t="n">
-        <v>2018.472742224994</v>
+        <v>2025.47551870453</v>
       </c>
     </row>
     <row r="21">
@@ -5807,52 +5807,52 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C21" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D21" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E21" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F21" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G21" t="n">
         <v>176.0213023927779</v>
       </c>
       <c r="H21" t="n">
-        <v>85.51940803064537</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I21" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J21" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K21" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L21" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M21" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N21" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O21" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P21" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q21" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R21" t="n">
         <v>2564.909189125856</v>
@@ -5864,7 +5864,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U21" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V21" t="n">
         <v>1779.608347199865</v>
@@ -5873,10 +5873,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X21" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y21" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>759.4662498052942</v>
+        <v>522.2180850649281</v>
       </c>
       <c r="C22" t="n">
-        <v>637.9796998254606</v>
+        <v>448.1811680331678</v>
       </c>
       <c r="D22" t="n">
-        <v>535.3126933611982</v>
+        <v>392.9637945169786</v>
       </c>
       <c r="E22" t="n">
-        <v>434.8492327268784</v>
+        <v>339.949966830732</v>
       </c>
       <c r="F22" t="n">
-        <v>335.4089181770414</v>
+        <v>287.9592852289682</v>
       </c>
       <c r="G22" t="n">
-        <v>215.1557144998336</v>
+        <v>215.1557144998337</v>
       </c>
       <c r="H22" t="n">
-        <v>116.3881606657647</v>
+        <v>68.9385277176915</v>
       </c>
       <c r="I22" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J22" t="n">
-        <v>158.1401341315257</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K22" t="n">
-        <v>408.6327023328075</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L22" t="n">
-        <v>771.6978860337103</v>
+        <v>632.1817302764916</v>
       </c>
       <c r="M22" t="n">
-        <v>1162.360316885666</v>
+        <v>976.3387758760407</v>
       </c>
       <c r="N22" t="n">
-        <v>1550.274078843937</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O22" t="n">
-        <v>1896.109063016757</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P22" t="n">
-        <v>2175.221948702823</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q22" t="n">
-        <v>2299.337630107745</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R22" t="n">
-        <v>2256.956805813346</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S22" t="n">
-        <v>2112.720554588246</v>
+        <v>1645.778206672848</v>
       </c>
       <c r="T22" t="n">
-        <v>1938.403572105845</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U22" t="n">
-        <v>1696.750338179562</v>
+        <v>1222.25400869883</v>
       </c>
       <c r="V22" t="n">
-        <v>1489.515482921749</v>
+        <v>1062.46878638909</v>
       </c>
       <c r="W22" t="n">
-        <v>1247.547945832861</v>
+        <v>867.9508822482755</v>
       </c>
       <c r="X22" t="n">
-        <v>1067.008027882917</v>
+        <v>734.8605972464047</v>
       </c>
       <c r="Y22" t="n">
-        <v>893.6650816874605</v>
+        <v>608.9672839990212</v>
       </c>
     </row>
     <row r="23">
@@ -5965,22 +5965,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1656.014232862801</v>
+        <v>1734.852707015896</v>
       </c>
       <c r="C23" t="n">
-        <v>1334.501348870463</v>
+        <v>1460.789455971631</v>
       </c>
       <c r="D23" t="n">
-        <v>1023.685283211786</v>
+        <v>1197.423023261027</v>
       </c>
       <c r="E23" t="n">
-        <v>685.3466635616151</v>
+        <v>906.5340365589294</v>
       </c>
       <c r="F23" t="n">
-        <v>685.3466635616151</v>
+        <v>590.4473976654683</v>
       </c>
       <c r="G23" t="n">
-        <v>317.7238463546849</v>
+        <v>270.2742134066116</v>
       </c>
       <c r="H23" t="n">
         <v>67.58987891152536</v>
@@ -5989,10 +5989,10 @@
         <v>67.58987891152536</v>
       </c>
       <c r="J23" t="n">
-        <v>309.279371358306</v>
+        <v>309.2793713583054</v>
       </c>
       <c r="K23" t="n">
-        <v>643.0987450481525</v>
+        <v>643.098745048152</v>
       </c>
       <c r="L23" t="n">
         <v>1094.132958296561</v>
@@ -6016,25 +6016,25 @@
         <v>3379.493945576268</v>
       </c>
       <c r="S23" t="n">
-        <v>3316.652910051437</v>
+        <v>3364.10254299951</v>
       </c>
       <c r="T23" t="n">
-        <v>3158.124795383732</v>
+        <v>3253.024061279879</v>
       </c>
       <c r="U23" t="n">
-        <v>2952.043951605642</v>
+        <v>3094.392850449862</v>
       </c>
       <c r="V23" t="n">
-        <v>2668.430697210144</v>
+        <v>2858.229229002437</v>
       </c>
       <c r="W23" t="n">
-        <v>2663.870264319595</v>
+        <v>2600.35983962847</v>
       </c>
       <c r="X23" t="n">
-        <v>2337.854139006588</v>
+        <v>2321.793347263536</v>
       </c>
       <c r="Y23" t="n">
-        <v>1995.16443997885</v>
+        <v>2026.553281183871</v>
       </c>
     </row>
     <row r="24">
@@ -6044,37 +6044,37 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>942.6216169604505</v>
+        <v>942.6216169604509</v>
       </c>
       <c r="C24" t="n">
-        <v>768.1685876793235</v>
+        <v>768.1685876793239</v>
       </c>
       <c r="D24" t="n">
-        <v>619.2341780180723</v>
+        <v>619.2341780180727</v>
       </c>
       <c r="E24" t="n">
-        <v>459.9967230126168</v>
+        <v>459.9967230126172</v>
       </c>
       <c r="F24" t="n">
-        <v>313.4621650395018</v>
+        <v>313.4621650395022</v>
       </c>
       <c r="G24" t="n">
-        <v>177.0990648721199</v>
+        <v>177.0990648721204</v>
       </c>
       <c r="H24" t="n">
-        <v>86.59717050998739</v>
+        <v>86.59717050998779</v>
       </c>
       <c r="I24" t="n">
         <v>67.58987891152536</v>
       </c>
       <c r="J24" t="n">
-        <v>161.2671484021427</v>
+        <v>161.2671484021425</v>
       </c>
       <c r="K24" t="n">
         <v>399.5313473824899</v>
       </c>
       <c r="L24" t="n">
-        <v>766.2295076951552</v>
+        <v>766.229507695155</v>
       </c>
       <c r="M24" t="n">
         <v>1213.505832917471</v>
@@ -6089,28 +6089,28 @@
         <v>2408.489747366084</v>
       </c>
       <c r="Q24" t="n">
-        <v>2566.131305012683</v>
+        <v>2566.131305012684</v>
       </c>
       <c r="R24" t="n">
-        <v>2565.986951605198</v>
+        <v>2565.986951605199</v>
       </c>
       <c r="S24" t="n">
-        <v>2436.549065098678</v>
+        <v>2436.549065098679</v>
       </c>
       <c r="T24" t="n">
-        <v>2243.906064776534</v>
+        <v>2243.906064776535</v>
       </c>
       <c r="U24" t="n">
-        <v>2015.838217910949</v>
+        <v>2015.83821791095</v>
       </c>
       <c r="V24" t="n">
         <v>1780.686109679207</v>
       </c>
       <c r="W24" t="n">
-        <v>1526.448752951005</v>
+        <v>1526.448752951006</v>
       </c>
       <c r="X24" t="n">
-        <v>1318.597252745472</v>
+        <v>1318.597252745473</v>
       </c>
       <c r="Y24" t="n">
         <v>1110.836953980519</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>760.5440122846361</v>
+        <v>620.6802863520763</v>
       </c>
       <c r="C25" t="n">
-        <v>639.0574623048025</v>
+        <v>546.643369320316</v>
       </c>
       <c r="D25" t="n">
-        <v>536.3904558405401</v>
+        <v>491.4259958041268</v>
       </c>
       <c r="E25" t="n">
-        <v>435.9269952062203</v>
+        <v>438.4121681178802</v>
       </c>
       <c r="F25" t="n">
-        <v>336.4866806563833</v>
+        <v>386.4214865161164</v>
       </c>
       <c r="G25" t="n">
-        <v>216.2334769791756</v>
+        <v>311.1327428753222</v>
       </c>
       <c r="H25" t="n">
-        <v>117.4659231451067</v>
+        <v>164.91555609318</v>
       </c>
       <c r="I25" t="n">
         <v>67.58987891152536</v>
       </c>
       <c r="J25" t="n">
-        <v>159.2178966108667</v>
+        <v>112.7125113584609</v>
       </c>
       <c r="K25" t="n">
-        <v>409.7104648121498</v>
+        <v>316.6996943073374</v>
       </c>
       <c r="L25" t="n">
-        <v>772.7756485130526</v>
+        <v>633.2594927558337</v>
       </c>
       <c r="M25" t="n">
-        <v>1163.438079365008</v>
+        <v>977.4165383553827</v>
       </c>
       <c r="N25" t="n">
-        <v>1551.35184132328</v>
+        <v>1318.824915061248</v>
       </c>
       <c r="O25" t="n">
-        <v>1897.1868254961</v>
+        <v>1618.154513981661</v>
       </c>
       <c r="P25" t="n">
-        <v>2176.299711182166</v>
+        <v>1850.76201441532</v>
       </c>
       <c r="Q25" t="n">
-        <v>2300.415392587087</v>
+        <v>1928.372310567835</v>
       </c>
       <c r="R25" t="n">
-        <v>2258.034568292688</v>
+        <v>1928.372310567835</v>
       </c>
       <c r="S25" t="n">
-        <v>2113.798317067588</v>
+        <v>1736.686426394662</v>
       </c>
       <c r="T25" t="n">
-        <v>1939.481334585187</v>
+        <v>1609.819076860334</v>
       </c>
       <c r="U25" t="n">
-        <v>1697.828100658904</v>
+        <v>1320.716209985978</v>
       </c>
       <c r="V25" t="n">
-        <v>1490.593245401091</v>
+        <v>1160.930987676238</v>
       </c>
       <c r="W25" t="n">
-        <v>1248.625708312203</v>
+        <v>966.4130835354237</v>
       </c>
       <c r="X25" t="n">
-        <v>1068.085790362259</v>
+        <v>833.3227985335529</v>
       </c>
       <c r="Y25" t="n">
-        <v>894.7428441668025</v>
+        <v>707.4294852861694</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1431.077917611005</v>
+        <v>2033.1075426895</v>
       </c>
       <c r="C26" t="n">
-        <v>1109.565033618667</v>
+        <v>1711.594658697162</v>
       </c>
       <c r="D26" t="n">
-        <v>798.7489679599898</v>
+        <v>1400.778593038485</v>
       </c>
       <c r="E26" t="n">
-        <v>798.7489679599898</v>
+        <v>1062.439973388314</v>
       </c>
       <c r="F26" t="n">
-        <v>435.2126961184556</v>
+        <v>698.9037015467795</v>
       </c>
       <c r="G26" t="n">
-        <v>67.58987891152536</v>
+        <v>331.2808843398487</v>
       </c>
       <c r="H26" t="n">
-        <v>67.58987891152536</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="I26" t="n">
-        <v>67.58987891152536</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J26" t="n">
-        <v>256.4690098705508</v>
+        <v>437.4316968760676</v>
       </c>
       <c r="K26" t="n">
-        <v>590.2883835603973</v>
+        <v>1045.699547878784</v>
       </c>
       <c r="L26" t="n">
-        <v>1041.322596808806</v>
+        <v>1496.733761127193</v>
       </c>
       <c r="M26" t="n">
-        <v>1574.854501480731</v>
+        <v>2030.265665799118</v>
       </c>
       <c r="N26" t="n">
-        <v>2121.633318539513</v>
+        <v>2577.0444828579</v>
       </c>
       <c r="O26" t="n">
-        <v>2624.60578941885</v>
+        <v>3080.016953737237</v>
       </c>
       <c r="P26" t="n">
-        <v>3019.380155776028</v>
+        <v>3474.791320094415</v>
       </c>
       <c r="Q26" t="n">
-        <v>3267.66651753171</v>
+        <v>3933.269522603403</v>
       </c>
       <c r="R26" t="n">
-        <v>3379.493945576268</v>
+        <v>4057.345844834459</v>
       </c>
       <c r="S26" t="n">
-        <v>3316.652910051437</v>
+        <v>3994.504809309627</v>
       </c>
       <c r="T26" t="n">
-        <v>3158.124795383732</v>
+        <v>3835.976694641922</v>
       </c>
       <c r="U26" t="n">
-        <v>2952.043951605642</v>
+        <v>3629.895850863832</v>
       </c>
       <c r="V26" t="n">
-        <v>2668.430697210144</v>
+        <v>3346.282596468335</v>
       </c>
       <c r="W26" t="n">
-        <v>2438.933949067798</v>
+        <v>3040.963574146294</v>
       </c>
       <c r="X26" t="n">
-        <v>2112.917823754792</v>
+        <v>2714.947448833287</v>
       </c>
       <c r="Y26" t="n">
-        <v>1770.228124727054</v>
+        <v>2372.257749805549</v>
       </c>
     </row>
     <row r="27">
@@ -6281,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>942.6216169604505</v>
+        <v>956.1786549456143</v>
       </c>
       <c r="C27" t="n">
-        <v>768.1685876793235</v>
+        <v>781.7256256644873</v>
       </c>
       <c r="D27" t="n">
-        <v>619.2341780180723</v>
+        <v>632.7912160032361</v>
       </c>
       <c r="E27" t="n">
-        <v>459.9967230126168</v>
+        <v>473.5537609977806</v>
       </c>
       <c r="F27" t="n">
-        <v>313.4621650395018</v>
+        <v>327.0192030246656</v>
       </c>
       <c r="G27" t="n">
-        <v>177.0990648721199</v>
+        <v>190.6561028572837</v>
       </c>
       <c r="H27" t="n">
-        <v>86.59717050998739</v>
+        <v>100.1542084951512</v>
       </c>
       <c r="I27" t="n">
-        <v>67.58987891152536</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J27" t="n">
-        <v>161.2671484021427</v>
+        <v>174.8241863873065</v>
       </c>
       <c r="K27" t="n">
-        <v>399.5313473824899</v>
+        <v>413.0883853676536</v>
       </c>
       <c r="L27" t="n">
-        <v>766.2295076951552</v>
+        <v>779.786545680319</v>
       </c>
       <c r="M27" t="n">
-        <v>1213.505832917471</v>
+        <v>1227.062870902635</v>
       </c>
       <c r="N27" t="n">
-        <v>1687.028876471926</v>
+        <v>1700.58591445709</v>
       </c>
       <c r="O27" t="n">
-        <v>2097.990155889981</v>
+        <v>2111.547193875144</v>
       </c>
       <c r="P27" t="n">
-        <v>2408.489747366083</v>
+        <v>2422.046785351247</v>
       </c>
       <c r="Q27" t="n">
-        <v>2566.131305012683</v>
+        <v>2579.688342997847</v>
       </c>
       <c r="R27" t="n">
-        <v>2565.986951605198</v>
+        <v>2579.543989590362</v>
       </c>
       <c r="S27" t="n">
-        <v>2436.549065098678</v>
+        <v>2450.106103083842</v>
       </c>
       <c r="T27" t="n">
-        <v>2243.906064776534</v>
+        <v>2257.463102761698</v>
       </c>
       <c r="U27" t="n">
-        <v>2015.838217910949</v>
+        <v>2029.395255896113</v>
       </c>
       <c r="V27" t="n">
-        <v>1780.686109679207</v>
+        <v>1794.243147664371</v>
       </c>
       <c r="W27" t="n">
-        <v>1526.448752951005</v>
+        <v>1540.005790936169</v>
       </c>
       <c r="X27" t="n">
-        <v>1318.597252745472</v>
+        <v>1332.154290730636</v>
       </c>
       <c r="Y27" t="n">
-        <v>1110.836953980519</v>
+        <v>1124.393991965682</v>
       </c>
     </row>
     <row r="28">
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>760.5440122846364</v>
+        <v>774.1010502698003</v>
       </c>
       <c r="C28" t="n">
-        <v>639.0574623048028</v>
+        <v>652.6145002899667</v>
       </c>
       <c r="D28" t="n">
-        <v>536.3904558405403</v>
+        <v>549.9474938257042</v>
       </c>
       <c r="E28" t="n">
-        <v>435.9269952062205</v>
+        <v>449.4840331913844</v>
       </c>
       <c r="F28" t="n">
-        <v>336.4866806563834</v>
+        <v>350.0437186415472</v>
       </c>
       <c r="G28" t="n">
-        <v>216.2334769791757</v>
+        <v>229.7905149643395</v>
       </c>
       <c r="H28" t="n">
-        <v>117.4659231451067</v>
+        <v>131.0229611302705</v>
       </c>
       <c r="I28" t="n">
-        <v>67.58987891152537</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J28" t="n">
-        <v>159.2178966108676</v>
+        <v>172.7749345960314</v>
       </c>
       <c r="K28" t="n">
-        <v>409.7104648121506</v>
+        <v>423.2675027973143</v>
       </c>
       <c r="L28" t="n">
-        <v>772.7756485130533</v>
+        <v>786.3326864982171</v>
       </c>
       <c r="M28" t="n">
-        <v>1163.438079365009</v>
+        <v>1176.995117350173</v>
       </c>
       <c r="N28" t="n">
-        <v>1551.35184132328</v>
+        <v>1564.908879308444</v>
       </c>
       <c r="O28" t="n">
-        <v>1897.1868254961</v>
+        <v>1910.743863481264</v>
       </c>
       <c r="P28" t="n">
-        <v>2176.299711182166</v>
+        <v>2189.85674916733</v>
       </c>
       <c r="Q28" t="n">
-        <v>2300.415392587087</v>
+        <v>2313.972430572251</v>
       </c>
       <c r="R28" t="n">
-        <v>2258.034568292689</v>
+        <v>2271.591606277853</v>
       </c>
       <c r="S28" t="n">
-        <v>2113.798317067588</v>
+        <v>2127.355355052753</v>
       </c>
       <c r="T28" t="n">
-        <v>1939.481334585188</v>
+        <v>1953.038372570352</v>
       </c>
       <c r="U28" t="n">
-        <v>1697.828100658905</v>
+        <v>1711.385138644069</v>
       </c>
       <c r="V28" t="n">
-        <v>1490.593245401091</v>
+        <v>1504.150283386255</v>
       </c>
       <c r="W28" t="n">
-        <v>1248.625708312204</v>
+        <v>1262.182746297368</v>
       </c>
       <c r="X28" t="n">
-        <v>1068.08579036226</v>
+        <v>1081.642828347424</v>
       </c>
       <c r="Y28" t="n">
-        <v>894.7428441668028</v>
+        <v>908.2998821519668</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1769.416537261176</v>
+        <v>2033.107542689499</v>
       </c>
       <c r="C29" t="n">
-        <v>1447.903653268838</v>
+        <v>1711.594658697161</v>
       </c>
       <c r="D29" t="n">
-        <v>1137.087587610161</v>
+        <v>1400.778593038484</v>
       </c>
       <c r="E29" t="n">
-        <v>798.7489679599898</v>
+        <v>1062.439973388313</v>
       </c>
       <c r="F29" t="n">
-        <v>435.2126961184556</v>
+        <v>698.9037015467788</v>
       </c>
       <c r="G29" t="n">
-        <v>67.58987891152536</v>
+        <v>331.2808843398486</v>
       </c>
       <c r="H29" t="n">
-        <v>67.58987891152536</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="I29" t="n">
-        <v>67.58987891152536</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J29" t="n">
-        <v>256.4690098705508</v>
+        <v>437.4316968760676</v>
       </c>
       <c r="K29" t="n">
-        <v>590.2883835603973</v>
+        <v>1045.699547878784</v>
       </c>
       <c r="L29" t="n">
-        <v>1041.322596808806</v>
+        <v>1496.733761127193</v>
       </c>
       <c r="M29" t="n">
-        <v>1627.664862968486</v>
+        <v>2030.265665799118</v>
       </c>
       <c r="N29" t="n">
-        <v>2174.443680027268</v>
+        <v>2577.0444828579</v>
       </c>
       <c r="O29" t="n">
-        <v>2677.416150906605</v>
+        <v>3080.016953737237</v>
       </c>
       <c r="P29" t="n">
-        <v>3072.190517263783</v>
+        <v>3474.791320094415</v>
       </c>
       <c r="Q29" t="n">
-        <v>3320.476879019466</v>
+        <v>3933.269522603403</v>
       </c>
       <c r="R29" t="n">
-        <v>3379.493945576268</v>
+        <v>4057.345844834459</v>
       </c>
       <c r="S29" t="n">
-        <v>3316.652910051437</v>
+        <v>3994.504809309626</v>
       </c>
       <c r="T29" t="n">
-        <v>3158.124795383732</v>
+        <v>3835.976694641921</v>
       </c>
       <c r="U29" t="n">
-        <v>2952.043951605642</v>
+        <v>3629.895850863831</v>
       </c>
       <c r="V29" t="n">
-        <v>2668.430697210144</v>
+        <v>3346.282596468333</v>
       </c>
       <c r="W29" t="n">
-        <v>2668.430697210144</v>
+        <v>3040.963574146293</v>
       </c>
       <c r="X29" t="n">
-        <v>2451.256443404963</v>
+        <v>2714.947448833286</v>
       </c>
       <c r="Y29" t="n">
-        <v>2108.566744377225</v>
+        <v>2372.257749805548</v>
       </c>
     </row>
     <row r="30">
@@ -6518,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>942.6216169604505</v>
+        <v>956.1786549456143</v>
       </c>
       <c r="C30" t="n">
-        <v>768.1685876793235</v>
+        <v>781.7256256644873</v>
       </c>
       <c r="D30" t="n">
-        <v>619.2341780180723</v>
+        <v>632.7912160032361</v>
       </c>
       <c r="E30" t="n">
-        <v>459.9967230126168</v>
+        <v>473.5537609977806</v>
       </c>
       <c r="F30" t="n">
-        <v>313.4621650395018</v>
+        <v>327.0192030246656</v>
       </c>
       <c r="G30" t="n">
-        <v>177.0990648721199</v>
+        <v>190.6561028572837</v>
       </c>
       <c r="H30" t="n">
-        <v>86.59717050998739</v>
+        <v>100.1542084951512</v>
       </c>
       <c r="I30" t="n">
-        <v>67.58987891152536</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J30" t="n">
-        <v>161.2671484021427</v>
+        <v>174.8241863873065</v>
       </c>
       <c r="K30" t="n">
-        <v>399.5313473824899</v>
+        <v>413.0883853676536</v>
       </c>
       <c r="L30" t="n">
-        <v>766.2295076951552</v>
+        <v>779.786545680319</v>
       </c>
       <c r="M30" t="n">
-        <v>1213.505832917471</v>
+        <v>1227.062870902635</v>
       </c>
       <c r="N30" t="n">
-        <v>1687.028876471926</v>
+        <v>1700.58591445709</v>
       </c>
       <c r="O30" t="n">
-        <v>2097.990155889981</v>
+        <v>2111.547193875144</v>
       </c>
       <c r="P30" t="n">
-        <v>2408.489747366084</v>
+        <v>2422.046785351247</v>
       </c>
       <c r="Q30" t="n">
-        <v>2566.131305012683</v>
+        <v>2579.688342997847</v>
       </c>
       <c r="R30" t="n">
-        <v>2565.986951605198</v>
+        <v>2579.543989590362</v>
       </c>
       <c r="S30" t="n">
-        <v>2436.549065098678</v>
+        <v>2450.106103083842</v>
       </c>
       <c r="T30" t="n">
-        <v>2243.906064776534</v>
+        <v>2257.463102761698</v>
       </c>
       <c r="U30" t="n">
-        <v>2015.838217910949</v>
+        <v>2029.395255896113</v>
       </c>
       <c r="V30" t="n">
-        <v>1780.686109679207</v>
+        <v>1794.243147664371</v>
       </c>
       <c r="W30" t="n">
-        <v>1526.448752951005</v>
+        <v>1540.005790936169</v>
       </c>
       <c r="X30" t="n">
-        <v>1318.597252745472</v>
+        <v>1332.154290730636</v>
       </c>
       <c r="Y30" t="n">
-        <v>1110.836953980519</v>
+        <v>1124.393991965682</v>
       </c>
     </row>
     <row r="31">
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>760.5440122846366</v>
+        <v>774.1010502697998</v>
       </c>
       <c r="C31" t="n">
-        <v>639.0574623048029</v>
+        <v>652.6145002899661</v>
       </c>
       <c r="D31" t="n">
-        <v>536.3904558405404</v>
+        <v>549.9474938257038</v>
       </c>
       <c r="E31" t="n">
-        <v>435.9269952062206</v>
+        <v>449.484033191384</v>
       </c>
       <c r="F31" t="n">
-        <v>336.4866806563834</v>
+        <v>350.043718641547</v>
       </c>
       <c r="G31" t="n">
-        <v>216.2334769791757</v>
+        <v>229.7905149643393</v>
       </c>
       <c r="H31" t="n">
-        <v>117.4659231451067</v>
+        <v>131.0229611302705</v>
       </c>
       <c r="I31" t="n">
-        <v>67.58987891152536</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="J31" t="n">
-        <v>159.2178966108675</v>
+        <v>172.7749345960314</v>
       </c>
       <c r="K31" t="n">
-        <v>409.7104648121505</v>
+        <v>423.2675027973145</v>
       </c>
       <c r="L31" t="n">
-        <v>772.7756485130533</v>
+        <v>786.3326864982168</v>
       </c>
       <c r="M31" t="n">
-        <v>1163.438079365009</v>
+        <v>1176.995117350172</v>
       </c>
       <c r="N31" t="n">
-        <v>1551.35184132328</v>
+        <v>1564.908879308444</v>
       </c>
       <c r="O31" t="n">
-        <v>1897.1868254961</v>
+        <v>1910.743863481264</v>
       </c>
       <c r="P31" t="n">
-        <v>2176.299711182166</v>
+        <v>2189.85674916733</v>
       </c>
       <c r="Q31" t="n">
-        <v>2300.415392587086</v>
+        <v>2313.972430572251</v>
       </c>
       <c r="R31" t="n">
-        <v>2258.034568292688</v>
+        <v>2271.591606277852</v>
       </c>
       <c r="S31" t="n">
-        <v>2113.798317067588</v>
+        <v>2127.355355052752</v>
       </c>
       <c r="T31" t="n">
-        <v>1939.481334585187</v>
+        <v>1953.038372570352</v>
       </c>
       <c r="U31" t="n">
-        <v>1697.828100658905</v>
+        <v>1711.385138644068</v>
       </c>
       <c r="V31" t="n">
-        <v>1490.593245401091</v>
+        <v>1504.150283386255</v>
       </c>
       <c r="W31" t="n">
-        <v>1248.625708312204</v>
+        <v>1262.182746297368</v>
       </c>
       <c r="X31" t="n">
-        <v>1068.08579036226</v>
+        <v>1081.642828347424</v>
       </c>
       <c r="Y31" t="n">
-        <v>894.742844166803</v>
+        <v>908.2998821519661</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1734.852707015896</v>
+        <v>2033.1075426895</v>
       </c>
       <c r="C32" t="n">
-        <v>1460.789455971631</v>
+        <v>1711.594658697162</v>
       </c>
       <c r="D32" t="n">
-        <v>1197.423023261027</v>
+        <v>1400.778593038484</v>
       </c>
       <c r="E32" t="n">
-        <v>906.534036558929</v>
+        <v>1062.439973388313</v>
       </c>
       <c r="F32" t="n">
-        <v>590.4473976654681</v>
+        <v>698.903701546779</v>
       </c>
       <c r="G32" t="n">
-        <v>270.2742134066116</v>
+        <v>331.2808843398487</v>
       </c>
       <c r="H32" t="n">
-        <v>67.58987891152536</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="I32" t="n">
-        <v>67.58987891152536</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="J32" t="n">
-        <v>256.4690098705508</v>
+        <v>282.5873354070228</v>
       </c>
       <c r="K32" t="n">
-        <v>590.2883835603973</v>
+        <v>937.3106675423223</v>
       </c>
       <c r="L32" t="n">
-        <v>1041.322596808806</v>
+        <v>1388.344880790731</v>
       </c>
       <c r="M32" t="n">
-        <v>1627.664862968486</v>
+        <v>1921.876785462656</v>
       </c>
       <c r="N32" t="n">
-        <v>2174.443680027268</v>
+        <v>2468.655602521438</v>
       </c>
       <c r="O32" t="n">
-        <v>2677.416150906605</v>
+        <v>2971.628073400775</v>
       </c>
       <c r="P32" t="n">
-        <v>3072.190517263783</v>
+        <v>3684.983160847721</v>
       </c>
       <c r="Q32" t="n">
-        <v>3320.476879019466</v>
+        <v>3933.269522603403</v>
       </c>
       <c r="R32" t="n">
-        <v>3379.493945576268</v>
+        <v>4057.345844834458</v>
       </c>
       <c r="S32" t="n">
-        <v>3364.10254299951</v>
+        <v>3994.504809309627</v>
       </c>
       <c r="T32" t="n">
-        <v>3253.024061279879</v>
+        <v>3835.976694641922</v>
       </c>
       <c r="U32" t="n">
-        <v>3094.392850449862</v>
+        <v>3629.895850863832</v>
       </c>
       <c r="V32" t="n">
-        <v>2858.229229002437</v>
+        <v>3346.282596468334</v>
       </c>
       <c r="W32" t="n">
-        <v>2600.35983962847</v>
+        <v>3040.963574146293</v>
       </c>
       <c r="X32" t="n">
-        <v>2321.793347263536</v>
+        <v>2714.947448833287</v>
       </c>
       <c r="Y32" t="n">
-        <v>2026.553281183871</v>
+        <v>2372.257749805548</v>
       </c>
     </row>
     <row r="33">
@@ -6755,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>942.6216169604505</v>
+        <v>956.1786549456144</v>
       </c>
       <c r="C33" t="n">
-        <v>768.1685876793235</v>
+        <v>781.7256256644874</v>
       </c>
       <c r="D33" t="n">
-        <v>619.2341780180723</v>
+        <v>632.7912160032362</v>
       </c>
       <c r="E33" t="n">
-        <v>459.9967230126168</v>
+        <v>473.5537609977807</v>
       </c>
       <c r="F33" t="n">
-        <v>313.4621650395018</v>
+        <v>327.0192030246657</v>
       </c>
       <c r="G33" t="n">
-        <v>177.0990648721199</v>
+        <v>190.6561028572838</v>
       </c>
       <c r="H33" t="n">
-        <v>86.59717050998739</v>
+        <v>100.1542084951513</v>
       </c>
       <c r="I33" t="n">
-        <v>67.58987891152536</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="J33" t="n">
-        <v>161.2671484021427</v>
+        <v>174.8241863873065</v>
       </c>
       <c r="K33" t="n">
-        <v>399.5313473824899</v>
+        <v>413.0883853676536</v>
       </c>
       <c r="L33" t="n">
-        <v>766.2295076951552</v>
+        <v>779.786545680319</v>
       </c>
       <c r="M33" t="n">
-        <v>1213.505832917471</v>
+        <v>1227.062870902635</v>
       </c>
       <c r="N33" t="n">
-        <v>1687.028876471926</v>
+        <v>1700.58591445709</v>
       </c>
       <c r="O33" t="n">
-        <v>2097.990155889981</v>
+        <v>2111.547193875144</v>
       </c>
       <c r="P33" t="n">
-        <v>2408.489747366084</v>
+        <v>2422.046785351247</v>
       </c>
       <c r="Q33" t="n">
-        <v>2566.131305012683</v>
+        <v>2579.688342997847</v>
       </c>
       <c r="R33" t="n">
-        <v>2565.986951605198</v>
+        <v>2579.543989590362</v>
       </c>
       <c r="S33" t="n">
-        <v>2436.549065098678</v>
+        <v>2450.106103083842</v>
       </c>
       <c r="T33" t="n">
-        <v>2243.906064776534</v>
+        <v>2257.463102761698</v>
       </c>
       <c r="U33" t="n">
-        <v>2015.838217910949</v>
+        <v>2029.395255896113</v>
       </c>
       <c r="V33" t="n">
-        <v>1780.686109679207</v>
+        <v>1794.243147664371</v>
       </c>
       <c r="W33" t="n">
-        <v>1526.448752951005</v>
+        <v>1540.005790936169</v>
       </c>
       <c r="X33" t="n">
-        <v>1318.597252745472</v>
+        <v>1332.154290730636</v>
       </c>
       <c r="Y33" t="n">
-        <v>1110.836953980519</v>
+        <v>1124.393991965683</v>
       </c>
     </row>
     <row r="34">
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>620.6802863520758</v>
+        <v>774.1010502698001</v>
       </c>
       <c r="C34" t="n">
-        <v>546.6433693203154</v>
+        <v>652.6145002899665</v>
       </c>
       <c r="D34" t="n">
-        <v>396.5267299079796</v>
+        <v>549.9474938257041</v>
       </c>
       <c r="E34" t="n">
-        <v>248.6136363255865</v>
+        <v>449.4840331913842</v>
       </c>
       <c r="F34" t="n">
-        <v>196.6229547238228</v>
+        <v>350.0437186415472</v>
       </c>
       <c r="G34" t="n">
-        <v>121.3342110830291</v>
+        <v>229.7905149643394</v>
       </c>
       <c r="H34" t="n">
-        <v>70.01629019703343</v>
+        <v>131.0229611302705</v>
       </c>
       <c r="I34" t="n">
-        <v>67.58987891152536</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="J34" t="n">
-        <v>112.7125113584609</v>
+        <v>172.774934596031</v>
       </c>
       <c r="K34" t="n">
-        <v>316.6996943073373</v>
+        <v>423.267502797314</v>
       </c>
       <c r="L34" t="n">
-        <v>633.2594927558334</v>
+        <v>786.3326864982168</v>
       </c>
       <c r="M34" t="n">
-        <v>977.4165383553825</v>
+        <v>1176.995117350172</v>
       </c>
       <c r="N34" t="n">
-        <v>1318.824915061247</v>
+        <v>1564.908879308444</v>
       </c>
       <c r="O34" t="n">
-        <v>1618.154513981661</v>
+        <v>1910.743863481264</v>
       </c>
       <c r="P34" t="n">
-        <v>1850.76201441532</v>
+        <v>2189.85674916733</v>
       </c>
       <c r="Q34" t="n">
-        <v>1928.372310567835</v>
+        <v>2313.972430572251</v>
       </c>
       <c r="R34" t="n">
-        <v>1928.372310567835</v>
+        <v>2271.591606277852</v>
       </c>
       <c r="S34" t="n">
-        <v>1831.585692290808</v>
+        <v>2127.355355052752</v>
       </c>
       <c r="T34" t="n">
-        <v>1704.718342756481</v>
+        <v>1953.038372570351</v>
       </c>
       <c r="U34" t="n">
-        <v>1510.514741778271</v>
+        <v>1711.385138644068</v>
       </c>
       <c r="V34" t="n">
-        <v>1255.830253572384</v>
+        <v>1504.150283386255</v>
       </c>
       <c r="W34" t="n">
-        <v>966.4130835354231</v>
+        <v>1262.182746297367</v>
       </c>
       <c r="X34" t="n">
-        <v>833.3227985335524</v>
+        <v>1081.642828347423</v>
       </c>
       <c r="Y34" t="n">
-        <v>707.4294852861689</v>
+        <v>908.2998821519666</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1733.774944536554</v>
+        <v>1457.522709123157</v>
       </c>
       <c r="C35" t="n">
-        <v>1459.711693492289</v>
+        <v>1136.009825130819</v>
       </c>
       <c r="D35" t="n">
-        <v>1196.345260781685</v>
+        <v>1136.009825130819</v>
       </c>
       <c r="E35" t="n">
-        <v>905.4562740795875</v>
+        <v>797.6712054806479</v>
       </c>
       <c r="F35" t="n">
-        <v>589.3696351861265</v>
+        <v>434.1349336391137</v>
       </c>
       <c r="G35" t="n">
-        <v>269.1964509272696</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H35" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I35" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J35" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K35" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L35" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M35" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N35" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O35" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P35" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q35" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R35" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S35" t="n">
-        <v>3325.605821609171</v>
+        <v>3262.76478608434</v>
       </c>
       <c r="T35" t="n">
-        <v>3251.946298800537</v>
+        <v>3104.236671416635</v>
       </c>
       <c r="U35" t="n">
-        <v>3093.315087970519</v>
+        <v>2898.155827638545</v>
       </c>
       <c r="V35" t="n">
-        <v>2857.151466523095</v>
+        <v>2614.542573243048</v>
       </c>
       <c r="W35" t="n">
-        <v>2599.282077149128</v>
+        <v>2309.223550921007</v>
       </c>
       <c r="X35" t="n">
-        <v>2320.715584784195</v>
+        <v>2139.362615266944</v>
       </c>
       <c r="Y35" t="n">
-        <v>2025.47551870453</v>
+        <v>1796.672916239206</v>
       </c>
     </row>
     <row r="36">
@@ -7007,16 +7007,16 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G36" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H36" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I36" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J36" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K36" t="n">
         <v>398.4535849031479</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>427.3188191687813</v>
+        <v>759.4662498052944</v>
       </c>
       <c r="C37" t="n">
-        <v>353.281902137021</v>
+        <v>637.9796998254608</v>
       </c>
       <c r="D37" t="n">
-        <v>298.0645286208319</v>
+        <v>535.3126933611984</v>
       </c>
       <c r="E37" t="n">
-        <v>245.0507009345853</v>
+        <v>434.8492327268785</v>
       </c>
       <c r="F37" t="n">
-        <v>193.0600193328216</v>
+        <v>335.4089181770415</v>
       </c>
       <c r="G37" t="n">
-        <v>120.2564486036871</v>
+        <v>215.1557144998337</v>
       </c>
       <c r="H37" t="n">
-        <v>68.93852771769149</v>
+        <v>116.3881606657648</v>
       </c>
       <c r="I37" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J37" t="n">
-        <v>111.634748879119</v>
+        <v>158.1401341315256</v>
       </c>
       <c r="K37" t="n">
-        <v>315.6219318279954</v>
+        <v>408.6327023328087</v>
       </c>
       <c r="L37" t="n">
-        <v>632.1817302764914</v>
+        <v>771.6978860337115</v>
       </c>
       <c r="M37" t="n">
-        <v>976.3387758760405</v>
+        <v>1162.360316885667</v>
       </c>
       <c r="N37" t="n">
-        <v>1317.747152581905</v>
+        <v>1550.274078843938</v>
       </c>
       <c r="O37" t="n">
-        <v>1617.076751502319</v>
+        <v>1896.109063016758</v>
       </c>
       <c r="P37" t="n">
-        <v>1849.684251935978</v>
+        <v>2175.221948702824</v>
       </c>
       <c r="Q37" t="n">
-        <v>1927.294548088493</v>
+        <v>2299.337630107746</v>
       </c>
       <c r="R37" t="n">
-        <v>1927.294548088493</v>
+        <v>2256.956805813347</v>
       </c>
       <c r="S37" t="n">
-        <v>1828.022756899807</v>
+        <v>2112.720554588247</v>
       </c>
       <c r="T37" t="n">
-        <v>1701.155407365479</v>
+        <v>1938.403572105846</v>
       </c>
       <c r="U37" t="n">
-        <v>1506.951806387269</v>
+        <v>1696.750338179563</v>
       </c>
       <c r="V37" t="n">
-        <v>1252.267318181383</v>
+        <v>1489.515482921749</v>
       </c>
       <c r="W37" t="n">
-        <v>1057.749414040568</v>
+        <v>1247.547945832862</v>
       </c>
       <c r="X37" t="n">
-        <v>829.7598631425511</v>
+        <v>1067.008027882918</v>
       </c>
       <c r="Y37" t="n">
-        <v>608.967283999021</v>
+        <v>893.6650816874608</v>
       </c>
     </row>
     <row r="38">
@@ -7150,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1680.9645830488</v>
+        <v>1584.980773859711</v>
       </c>
       <c r="C38" t="n">
-        <v>1406.901332004534</v>
+        <v>1263.467889867372</v>
       </c>
       <c r="D38" t="n">
-        <v>1143.53489929393</v>
+        <v>1018.520975367048</v>
       </c>
       <c r="E38" t="n">
-        <v>905.4562740795875</v>
+        <v>680.1823557168772</v>
       </c>
       <c r="F38" t="n">
-        <v>589.3696351861265</v>
+        <v>316.6460838753429</v>
       </c>
       <c r="G38" t="n">
-        <v>269.1964509272697</v>
+        <v>316.6460838753429</v>
       </c>
       <c r="H38" t="n">
         <v>66.51211643218343</v>
@@ -7177,49 +7177,49 @@
         <v>255.3912473912089</v>
       </c>
       <c r="K38" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L38" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M38" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N38" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O38" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P38" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q38" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R38" t="n">
         <v>3325.605821609172</v>
       </c>
       <c r="S38" t="n">
-        <v>3310.214419032414</v>
+        <v>3262.76478608434</v>
       </c>
       <c r="T38" t="n">
-        <v>3199.135937312783</v>
+        <v>3104.236671416636</v>
       </c>
       <c r="U38" t="n">
-        <v>3040.504726482765</v>
+        <v>2898.155827638545</v>
       </c>
       <c r="V38" t="n">
-        <v>2804.341105035341</v>
+        <v>2898.155827638545</v>
       </c>
       <c r="W38" t="n">
-        <v>2546.471715661373</v>
+        <v>2592.836805316505</v>
       </c>
       <c r="X38" t="n">
-        <v>2267.90522329644</v>
+        <v>2266.820680003498</v>
       </c>
       <c r="Y38" t="n">
-        <v>1972.665157216775</v>
+        <v>1924.130980975759</v>
       </c>
     </row>
     <row r="39">
@@ -7229,19 +7229,19 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C39" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D39" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E39" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F39" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G39" t="n">
         <v>176.021302392778</v>
@@ -7253,22 +7253,22 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J39" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K39" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L39" t="n">
-        <v>765.1517452158135</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M39" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N39" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O39" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P39" t="n">
         <v>2407.411984886741</v>
@@ -7286,7 +7286,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U39" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V39" t="n">
         <v>1779.608347199865</v>
@@ -7295,10 +7295,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X39" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y39" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="40">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>617.1173509610745</v>
+        <v>759.4662498052944</v>
       </c>
       <c r="C40" t="n">
-        <v>543.0804339293142</v>
+        <v>637.9796998254608</v>
       </c>
       <c r="D40" t="n">
-        <v>392.9637945169785</v>
+        <v>535.3126933611984</v>
       </c>
       <c r="E40" t="n">
-        <v>339.9499668307319</v>
+        <v>434.8492327268785</v>
       </c>
       <c r="F40" t="n">
-        <v>287.9592852289682</v>
+        <v>335.4089181770414</v>
       </c>
       <c r="G40" t="n">
         <v>215.1557144998337</v>
       </c>
       <c r="H40" t="n">
-        <v>68.9385277176915</v>
+        <v>116.3881606657648</v>
       </c>
       <c r="I40" t="n">
         <v>66.51211643218343</v>
       </c>
       <c r="J40" t="n">
-        <v>111.634748879119</v>
+        <v>158.1401341315256</v>
       </c>
       <c r="K40" t="n">
-        <v>315.6219318279954</v>
+        <v>408.6327023328087</v>
       </c>
       <c r="L40" t="n">
-        <v>632.1817302764914</v>
+        <v>771.6978860337115</v>
       </c>
       <c r="M40" t="n">
-        <v>976.3387758760405</v>
+        <v>1162.360316885667</v>
       </c>
       <c r="N40" t="n">
-        <v>1317.747152581905</v>
+        <v>1550.274078843938</v>
       </c>
       <c r="O40" t="n">
-        <v>1617.076751502319</v>
+        <v>1896.109063016758</v>
       </c>
       <c r="P40" t="n">
-        <v>1849.684251935978</v>
+        <v>2175.221948702824</v>
       </c>
       <c r="Q40" t="n">
-        <v>1927.294548088493</v>
+        <v>2299.337630107746</v>
       </c>
       <c r="R40" t="n">
-        <v>1837.464090846021</v>
+        <v>2256.956805813347</v>
       </c>
       <c r="S40" t="n">
-        <v>1740.677472568994</v>
+        <v>2112.720554588247</v>
       </c>
       <c r="T40" t="n">
-        <v>1613.810123034667</v>
+        <v>1938.403572105846</v>
       </c>
       <c r="U40" t="n">
-        <v>1412.052540491123</v>
+        <v>1696.750338179563</v>
       </c>
       <c r="V40" t="n">
-        <v>1252.267318181383</v>
+        <v>1489.515482921749</v>
       </c>
       <c r="W40" t="n">
-        <v>962.8501481444218</v>
+        <v>1247.547945832862</v>
       </c>
       <c r="X40" t="n">
-        <v>829.7598631425511</v>
+        <v>1067.008027882918</v>
       </c>
       <c r="Y40" t="n">
-        <v>703.8665498951676</v>
+        <v>893.6650816874608</v>
       </c>
     </row>
     <row r="41">
@@ -7387,34 +7387,34 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2018.472742224994</v>
+        <v>1669.527577311086</v>
       </c>
       <c r="C41" t="n">
-        <v>1696.959858232656</v>
+        <v>1446.825890789496</v>
       </c>
       <c r="D41" t="n">
-        <v>1386.143792573978</v>
+        <v>1136.009825130819</v>
       </c>
       <c r="E41" t="n">
-        <v>1047.805172923807</v>
+        <v>797.6712054806479</v>
       </c>
       <c r="F41" t="n">
-        <v>684.2689010822731</v>
+        <v>434.1349336391137</v>
       </c>
       <c r="G41" t="n">
-        <v>316.6460838753429</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H41" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I41" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J41" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K41" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L41" t="n">
         <v>1040.244834329465</v>
@@ -7423,16 +7423,16 @@
         <v>1573.776739001389</v>
       </c>
       <c r="N41" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O41" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P41" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q41" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R41" t="n">
         <v>3325.605821609171</v>
@@ -7441,22 +7441,22 @@
         <v>3325.605821609171</v>
       </c>
       <c r="T41" t="n">
-        <v>3325.605821609171</v>
+        <v>3167.077706941467</v>
       </c>
       <c r="U41" t="n">
-        <v>3289.244925086319</v>
+        <v>2960.996863163376</v>
       </c>
       <c r="V41" t="n">
-        <v>3005.631670690821</v>
+        <v>2677.383608767879</v>
       </c>
       <c r="W41" t="n">
-        <v>2700.312648368781</v>
+        <v>2677.383608767879</v>
       </c>
       <c r="X41" t="n">
-        <v>2700.312648368781</v>
+        <v>2351.367483454873</v>
       </c>
       <c r="Y41" t="n">
-        <v>2357.622949341042</v>
+        <v>2008.677784427134</v>
       </c>
     </row>
     <row r="42">
@@ -7481,16 +7481,16 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G42" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H42" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I42" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J42" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K42" t="n">
         <v>398.4535849031479</v>
@@ -7545,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>759.4662498052944</v>
+        <v>759.4662498052942</v>
       </c>
       <c r="C43" t="n">
-        <v>637.9796998254608</v>
+        <v>637.9796998254606</v>
       </c>
       <c r="D43" t="n">
-        <v>535.3126933611984</v>
+        <v>535.3126933611982</v>
       </c>
       <c r="E43" t="n">
-        <v>434.8492327268786</v>
+        <v>434.8492327268784</v>
       </c>
       <c r="F43" t="n">
-        <v>335.4089181770415</v>
+        <v>335.4089181770414</v>
       </c>
       <c r="G43" t="n">
         <v>215.1557144998337</v>
@@ -7566,16 +7566,16 @@
         <v>116.3881606657648</v>
       </c>
       <c r="I43" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J43" t="n">
         <v>158.1401341315256</v>
       </c>
       <c r="K43" t="n">
-        <v>408.6327023328084</v>
+        <v>408.6327023328087</v>
       </c>
       <c r="L43" t="n">
-        <v>771.6978860337113</v>
+        <v>771.6978860337115</v>
       </c>
       <c r="M43" t="n">
         <v>1162.360316885667</v>
@@ -7614,7 +7614,7 @@
         <v>1067.008027882918</v>
       </c>
       <c r="Y43" t="n">
-        <v>893.6650816874608</v>
+        <v>893.6650816874605</v>
       </c>
     </row>
     <row r="44">
@@ -7624,22 +7624,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1369.318056916146</v>
+        <v>1301.367519464213</v>
       </c>
       <c r="C44" t="n">
-        <v>1047.805172923807</v>
+        <v>979.8546354718744</v>
       </c>
       <c r="D44" t="n">
-        <v>1047.805172923807</v>
+        <v>669.0385698131972</v>
       </c>
       <c r="E44" t="n">
-        <v>1047.805172923807</v>
+        <v>330.6999501630262</v>
       </c>
       <c r="F44" t="n">
-        <v>684.2689010822731</v>
+        <v>316.646083875343</v>
       </c>
       <c r="G44" t="n">
-        <v>316.6460838753429</v>
+        <v>316.646083875343</v>
       </c>
       <c r="H44" t="n">
         <v>66.51211643218342</v>
@@ -7648,13 +7648,13 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J44" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K44" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L44" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M44" t="n">
         <v>1573.776739001389</v>
@@ -7678,22 +7678,22 @@
         <v>3262.764786084339</v>
       </c>
       <c r="T44" t="n">
-        <v>3104.236671416634</v>
+        <v>3104.236671416635</v>
       </c>
       <c r="U44" t="n">
         <v>2898.155827638544</v>
       </c>
       <c r="V44" t="n">
-        <v>2682.49311069498</v>
+        <v>2614.542573243047</v>
       </c>
       <c r="W44" t="n">
-        <v>2377.174088372939</v>
+        <v>2309.223550921006</v>
       </c>
       <c r="X44" t="n">
-        <v>2051.157963059933</v>
+        <v>1983.207425608</v>
       </c>
       <c r="Y44" t="n">
-        <v>1708.468264032194</v>
+        <v>1640.517726580261</v>
       </c>
     </row>
     <row r="45">
@@ -7782,37 +7782,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>759.4662498052949</v>
+        <v>759.4662498052935</v>
       </c>
       <c r="C46" t="n">
-        <v>637.9796998254612</v>
+        <v>637.9796998254599</v>
       </c>
       <c r="D46" t="n">
-        <v>535.3126933611989</v>
+        <v>535.3126933611974</v>
       </c>
       <c r="E46" t="n">
-        <v>434.8492327268785</v>
+        <v>434.8492327268775</v>
       </c>
       <c r="F46" t="n">
-        <v>335.4089181770414</v>
+        <v>335.4089181770404</v>
       </c>
       <c r="G46" t="n">
-        <v>215.1557144998337</v>
+        <v>215.1557144998326</v>
       </c>
       <c r="H46" t="n">
-        <v>116.3881606657648</v>
+        <v>116.3881606657636</v>
       </c>
       <c r="I46" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J46" t="n">
-        <v>158.1401341315256</v>
+        <v>158.1401341315255</v>
       </c>
       <c r="K46" t="n">
-        <v>408.6327023328086</v>
+        <v>408.6327023328085</v>
       </c>
       <c r="L46" t="n">
-        <v>771.6978860337115</v>
+        <v>771.6978860337113</v>
       </c>
       <c r="M46" t="n">
         <v>1162.360316885667</v>
@@ -7827,31 +7827,31 @@
         <v>2175.221948702824</v>
       </c>
       <c r="Q46" t="n">
-        <v>2299.337630107746</v>
+        <v>2299.337630107745</v>
       </c>
       <c r="R46" t="n">
-        <v>2256.956805813347</v>
+        <v>2256.956805813346</v>
       </c>
       <c r="S46" t="n">
-        <v>2112.720554588247</v>
+        <v>2112.720554588246</v>
       </c>
       <c r="T46" t="n">
-        <v>1938.403572105846</v>
+        <v>1938.403572105845</v>
       </c>
       <c r="U46" t="n">
-        <v>1696.750338179563</v>
+        <v>1696.750338179562</v>
       </c>
       <c r="V46" t="n">
-        <v>1489.515482921749</v>
+        <v>1489.515482921748</v>
       </c>
       <c r="W46" t="n">
-        <v>1247.547945832862</v>
+        <v>1247.547945832861</v>
       </c>
       <c r="X46" t="n">
-        <v>1067.008027882918</v>
+        <v>1067.008027882917</v>
       </c>
       <c r="Y46" t="n">
-        <v>893.6650816874612</v>
+        <v>893.66508168746</v>
       </c>
     </row>
   </sheetData>
@@ -8452,28 +8452,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>108.4578083819526</v>
+        <v>146.7328332134195</v>
       </c>
       <c r="K8" t="n">
-        <v>111.2991114468048</v>
+        <v>168.6634518925341</v>
       </c>
       <c r="L8" t="n">
-        <v>100.8018825632058</v>
+        <v>171.9674193880983</v>
       </c>
       <c r="M8" t="n">
-        <v>80.17218604337933</v>
+        <v>159.3575578920171</v>
       </c>
       <c r="N8" t="n">
-        <v>76.80904332712953</v>
+        <v>157.2757172780358</v>
       </c>
       <c r="O8" t="n">
-        <v>85.99856242177802</v>
+        <v>161.9809608673849</v>
       </c>
       <c r="P8" t="n">
-        <v>108.2472791970535</v>
+        <v>173.0964983554622</v>
       </c>
       <c r="Q8" t="n">
-        <v>129.9485386050686</v>
+        <v>178.6476014810353</v>
       </c>
       <c r="R8" t="n">
         <v>65.71641987298243</v>
@@ -8531,28 +8531,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>83.60465388110477</v>
+        <v>106.4009964605563</v>
       </c>
       <c r="K9" t="n">
-        <v>63.94940243724218</v>
+        <v>102.9119828535491</v>
       </c>
       <c r="L9" t="n">
-        <v>39.19741781203412</v>
+        <v>91.58741546282795</v>
       </c>
       <c r="M9" t="n">
-        <v>26.18914567068776</v>
+        <v>87.32580185261602</v>
       </c>
       <c r="N9" t="n">
-        <v>12.3281076447726</v>
+        <v>75.0828691980384</v>
       </c>
       <c r="O9" t="n">
-        <v>33.72204757807903</v>
+        <v>91.13039426149712</v>
       </c>
       <c r="P9" t="n">
-        <v>46.59326591032416</v>
+        <v>92.66852533301403</v>
       </c>
       <c r="Q9" t="n">
-        <v>81.56979507153778</v>
+        <v>112.3698858023469</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8613,22 +8613,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K10" t="n">
-        <v>84.4418738465166</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L10" t="n">
-        <v>77.84864973702832</v>
+        <v>107.9232135872089</v>
       </c>
       <c r="M10" t="n">
-        <v>78.78929099775718</v>
+        <v>110.4987018127666</v>
       </c>
       <c r="N10" t="n">
-        <v>68.97896290606192</v>
+        <v>99.93439480590851</v>
       </c>
       <c r="O10" t="n">
-        <v>84.23150844637766</v>
+        <v>112.8238600877259</v>
       </c>
       <c r="P10" t="n">
-        <v>91.32912321606892</v>
+        <v>115.7948195266231</v>
       </c>
       <c r="Q10" t="n">
         <v>65.34295837775146</v>
@@ -8792,7 +8792,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9503,7 +9503,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>-1.037064785476832e-13</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9637,7 +9637,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>53.34379948258103</v>
+        <v>53.34379948258024</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -9874,10 +9874,10 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>277.2206841544144</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
@@ -9895,10 +9895,10 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>53.3437994825813</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10111,16 +10111,16 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>277.2206841544144</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>53.34379948258118</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
@@ -10132,10 +10132,10 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10348,16 +10348,16 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>12.68816924374568</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>53.34379948258118</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
@@ -10366,13 +10366,13 @@
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10846,7 +10846,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>9.379164112033322e-13</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -23035,7 +23035,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>14.44748961876269</v>
+        <v>14.89845384305426</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -23269,13 +23269,13 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>359.9009091231189</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>247.6326277687279</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23317,13 +23317,13 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>47.76742931123422</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>302.2658320988205</v>
+        <v>139.5455787045685</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>322.7559640598765</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23512,7 +23512,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>247.6326277687279</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23545,19 +23545,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>62.21262516958326</v>
+        <v>62.2126251695833</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>156.9428335210276</v>
       </c>
       <c r="U14" t="n">
         <v>204.0200353403094</v>
       </c>
       <c r="V14" t="n">
-        <v>196.068882254554</v>
+        <v>280.7771218515423</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>5.981554650710734</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23734,16 +23734,16 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>318.297755152415</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>307.7079050020904</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>83.92851037866785</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -23788,7 +23788,7 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>52.28225787287873</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -23968,7 +23968,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>335.758705044888</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -24019,22 +24019,22 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>15.23748855099072</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>37.04476932188793</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>280.7771218515423</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>93.39834363674274</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -24217,7 +24217,7 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>359.9009091231189</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -24268,7 +24268,7 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>297.7510035371762</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -24451,7 +24451,7 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>334.9552334536692</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -24460,7 +24460,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>247.6326277687279</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -24505,7 +24505,7 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>75.06405143789797</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -24697,7 +24697,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>247.6326277687279</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -24742,10 +24742,10 @@
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>302.2658320988205</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>107.7534527927471</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -25159,7 +25159,7 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>307.7079050020904</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -25171,7 +25171,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>247.6326277687279</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -25204,10 +25204,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>15.23748855099072</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>37.04476932188744</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -25219,7 +25219,7 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>154.5936377623543</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -25396,16 +25396,16 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>65.21045964676938</v>
       </c>
       <c r="E38" t="n">
-        <v>52.28225787287712</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>363.9465890348609</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -25450,7 +25450,7 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>280.7771218515423</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -25630,7 +25630,7 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>97.82308549604105</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -25645,7 +25645,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>247.6326277687279</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25678,22 +25678,22 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>62.21262516958328</v>
+        <v>62.21262516958325</v>
       </c>
       <c r="T41" t="n">
-        <v>156.9428335210276</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>168.0227477826861</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>302.2658320988205</v>
       </c>
       <c r="X41" t="n">
-        <v>322.7559640598765</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25870,16 +25870,16 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>307.7079050020904</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>334.9552334536692</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>345.9875814983125</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>363.9465890348609</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -25924,7 +25924,7 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>67.27103207741382</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -26043,7 +26043,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>1.215028078149771e-12</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>667981.7809631246</v>
+        <v>699923.9661853595</v>
       </c>
     </row>
     <row r="5">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>586207.0806826407</v>
+        <v>586207.0806826408</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>586207.0806826408</v>
+        <v>625468.8998684604</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>586207.0806826408</v>
+        <v>625468.8998684604</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>591557.5688580286</v>
+        <v>630819.3880438482</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>591557.5688580287</v>
+        <v>658860.6832484945</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>591557.5688580285</v>
+        <v>658860.6832484945</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>630819.3880438482</v>
+        <v>658860.6832484945</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>625468.8998684604</v>
+        <v>586207.0806826408</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>625468.8998684605</v>
+        <v>586207.0806826408</v>
       </c>
     </row>
     <row r="15">
@@ -26316,46 +26316,46 @@
         <v>819276.3387170384</v>
       </c>
       <c r="C2" t="n">
-        <v>819276.3387170385</v>
+        <v>819276.3387170384</v>
       </c>
       <c r="D2" t="n">
-        <v>819344.4164495898</v>
+        <v>819308.5196973362</v>
       </c>
       <c r="E2" t="n">
+        <v>764531.0098898428</v>
+      </c>
+      <c r="F2" t="n">
+        <v>764531.0098898432</v>
+      </c>
+      <c r="G2" t="n">
+        <v>816880.1021376023</v>
+      </c>
+      <c r="H2" t="n">
+        <v>816880.1021376026</v>
+      </c>
+      <c r="I2" t="n">
+        <v>821041.7698642835</v>
+      </c>
+      <c r="J2" t="n">
+        <v>821041.769864283</v>
+      </c>
+      <c r="K2" t="n">
+        <v>821041.7698642835</v>
+      </c>
+      <c r="L2" t="n">
+        <v>821041.769864282</v>
+      </c>
+      <c r="M2" t="n">
         <v>764531.0098898429</v>
       </c>
-      <c r="F2" t="n">
-        <v>764531.0098898428</v>
-      </c>
-      <c r="G2" t="n">
+      <c r="N2" t="n">
         <v>764531.0098898427</v>
       </c>
-      <c r="H2" t="n">
-        <v>764531.0098898429</v>
-      </c>
-      <c r="I2" t="n">
-        <v>768692.6776165238</v>
-      </c>
-      <c r="J2" t="n">
-        <v>768692.6776165235</v>
-      </c>
-      <c r="K2" t="n">
-        <v>768692.6776165236</v>
-      </c>
-      <c r="L2" t="n">
-        <v>821041.7698642832</v>
-      </c>
-      <c r="M2" t="n">
-        <v>816880.1021376025</v>
-      </c>
-      <c r="N2" t="n">
-        <v>816880.1021376027</v>
-      </c>
       <c r="O2" t="n">
-        <v>764531.0098898428</v>
+        <v>764531.0098898424</v>
       </c>
       <c r="P2" t="n">
-        <v>764531.0098898415</v>
+        <v>764531.0098898414</v>
       </c>
     </row>
     <row r="3">
@@ -26371,16 +26371,16 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>182196.0101410551</v>
+        <v>86125.75643942218</v>
       </c>
       <c r="E3" t="n">
-        <v>990429.8681175378</v>
+        <v>1080553.488276308</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>3.014195044670487e-10</v>
+        <v>37580.10929487403</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,16 +26389,16 @@
         <v>3582.495953363618</v>
       </c>
       <c r="J3" t="n">
-        <v>37580.10929487403</v>
+        <v>44338.97058237749</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-11</v>
       </c>
       <c r="L3" t="n">
-        <v>37580.10929487406</v>
+        <v>37580.109294874</v>
       </c>
       <c r="M3" t="n">
-        <v>203831.2842807988</v>
+        <v>161600.4331051144</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26423,43 +26423,43 @@
         <v>457775.3608255375</v>
       </c>
       <c r="D4" t="n">
-        <v>388803.2665979781</v>
+        <v>425115.5418470231</v>
       </c>
       <c r="E4" t="n">
-        <v>60655.33327364781</v>
+        <v>60655.33327364775</v>
       </c>
       <c r="F4" t="n">
-        <v>60655.33327364778</v>
+        <v>60655.33327364775</v>
       </c>
       <c r="G4" t="n">
-        <v>60655.33327364778</v>
+        <v>90418.49996534975</v>
       </c>
       <c r="H4" t="n">
-        <v>60655.33327364778</v>
+        <v>90418.49996534968</v>
       </c>
       <c r="I4" t="n">
-        <v>62890.93990368306</v>
+        <v>92654.10659538498</v>
       </c>
       <c r="J4" t="n">
-        <v>62890.93990368304</v>
+        <v>91012.35309462826</v>
       </c>
       <c r="K4" t="n">
-        <v>62890.93990368304</v>
+        <v>91012.35309462831</v>
       </c>
       <c r="L4" t="n">
-        <v>92654.10659538506</v>
+        <v>91012.35309462828</v>
       </c>
       <c r="M4" t="n">
-        <v>90418.49996534977</v>
+        <v>60655.33327364777</v>
       </c>
       <c r="N4" t="n">
-        <v>90418.49996534982</v>
+        <v>60655.33327364777</v>
       </c>
       <c r="O4" t="n">
-        <v>60655.33327364777</v>
+        <v>60655.33327364779</v>
       </c>
       <c r="P4" t="n">
-        <v>60655.33327364777</v>
+        <v>60655.3332736477</v>
       </c>
     </row>
     <row r="5">
@@ -26475,43 +26475,43 @@
         <v>33627.6</v>
       </c>
       <c r="D5" t="n">
-        <v>38265.39553005323</v>
+        <v>35819.92928277609</v>
       </c>
       <c r="E5" t="n">
-        <v>78255.49332178175</v>
+        <v>78255.49332178176</v>
       </c>
       <c r="F5" t="n">
-        <v>78255.49332178173</v>
+        <v>78255.49332178176</v>
       </c>
       <c r="G5" t="n">
+        <v>82204.64608217022</v>
+      </c>
+      <c r="H5" t="n">
+        <v>82204.64608217022</v>
+      </c>
+      <c r="I5" t="n">
+        <v>83023.7455664701</v>
+      </c>
+      <c r="J5" t="n">
+        <v>89377.94167480612</v>
+      </c>
+      <c r="K5" t="n">
+        <v>89377.94167480613</v>
+      </c>
+      <c r="L5" t="n">
+        <v>89377.94167480612</v>
+      </c>
+      <c r="M5" t="n">
         <v>78255.49332178176</v>
       </c>
-      <c r="H5" t="n">
+      <c r="N5" t="n">
+        <v>78255.49332178177</v>
+      </c>
+      <c r="O5" t="n">
         <v>78255.49332178176</v>
       </c>
-      <c r="I5" t="n">
-        <v>79074.59280608164</v>
-      </c>
-      <c r="J5" t="n">
-        <v>79074.59280608164</v>
-      </c>
-      <c r="K5" t="n">
-        <v>79074.59280608164</v>
-      </c>
-      <c r="L5" t="n">
-        <v>83023.7455664701</v>
-      </c>
-      <c r="M5" t="n">
-        <v>82204.64608217022</v>
-      </c>
-      <c r="N5" t="n">
-        <v>82204.64608217022</v>
-      </c>
-      <c r="O5" t="n">
-        <v>78255.49332178175</v>
-      </c>
       <c r="P5" t="n">
-        <v>78255.49332178175</v>
+        <v>78255.49332178176</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>327873.3778915009</v>
+        <v>327829.2421128198</v>
       </c>
       <c r="C6" t="n">
-        <v>327873.3778915011</v>
+        <v>327829.2421128198</v>
       </c>
       <c r="D6" t="n">
-        <v>210079.7441805034</v>
+        <v>272203.9608739413</v>
       </c>
       <c r="E6" t="n">
-        <v>-364809.6848231244</v>
+        <v>-456346.0739812559</v>
       </c>
       <c r="F6" t="n">
-        <v>625620.1832944133</v>
+        <v>624207.4142950528</v>
       </c>
       <c r="G6" t="n">
-        <v>625620.1832944128</v>
+        <v>606572.8051020412</v>
       </c>
       <c r="H6" t="n">
-        <v>625620.1832944134</v>
+        <v>644152.9143969157</v>
       </c>
       <c r="I6" t="n">
-        <v>623144.6489533955</v>
+        <v>641781.4217490648</v>
       </c>
       <c r="J6" t="n">
-        <v>589147.0356118848</v>
+        <v>596312.5045124711</v>
       </c>
       <c r="K6" t="n">
-        <v>626727.1449067589</v>
+        <v>640651.475094849</v>
       </c>
       <c r="L6" t="n">
-        <v>607783.8084075539</v>
+        <v>603071.3657999735</v>
       </c>
       <c r="M6" t="n">
-        <v>440425.6718092838</v>
+        <v>462606.981189938</v>
       </c>
       <c r="N6" t="n">
-        <v>644256.9560900828</v>
+        <v>624207.4142950522</v>
       </c>
       <c r="O6" t="n">
-        <v>625620.1832944133</v>
+        <v>624207.4142950518</v>
       </c>
       <c r="P6" t="n">
-        <v>625620.183294412</v>
+        <v>624207.414295051</v>
       </c>
     </row>
   </sheetData>
@@ -26694,40 +26694,40 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="F2" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="G2" t="n">
-        <v>46.97513661859258</v>
+        <v>93.95027323718509</v>
       </c>
       <c r="H2" t="n">
-        <v>46.97513661859258</v>
+        <v>93.95027323718509</v>
       </c>
       <c r="I2" t="n">
-        <v>46.97513661859258</v>
+        <v>93.95027323718509</v>
       </c>
       <c r="J2" t="n">
         <v>46.97513661859254</v>
       </c>
       <c r="K2" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="L2" t="n">
-        <v>93.95027323718512</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M2" t="n">
-        <v>93.95027323718512</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N2" t="n">
-        <v>93.95027323718512</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O2" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="P2" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
     </row>
     <row r="3">
@@ -26743,7 +26743,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>212.7429142226249</v>
+        <v>100.5655634300959</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26755,10 +26755,10 @@
         <v>1089.776700593298</v>
       </c>
       <c r="H3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="I3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="J3" t="n">
         <v>1089.776700593298</v>
@@ -26798,10 +26798,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="F4" t="n">
-        <v>831.4014554022923</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="G4" t="n">
         <v>831.4014554022928</v>
@@ -26813,25 +26813,25 @@
         <v>844.8734863940671</v>
       </c>
       <c r="J4" t="n">
-        <v>844.8734863940671</v>
+        <v>1014.336461208615</v>
       </c>
       <c r="K4" t="n">
-        <v>844.8734863940671</v>
+        <v>1014.336461208615</v>
       </c>
       <c r="L4" t="n">
-        <v>844.8734863940671</v>
+        <v>1014.336461208615</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="N4" t="n">
         <v>831.401455402293</v>
       </c>
       <c r="O4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="P4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022928</v>
       </c>
     </row>
   </sheetData>
@@ -26916,13 +26916,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26931,13 +26931,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>46.97513661859254</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>7.105427357601002e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>46.97513661859258</v>
+        <v>46.9751366185925</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26965,16 +26965,16 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>212.7429142226249</v>
+        <v>100.5655634300959</v>
       </c>
       <c r="E3" t="n">
-        <v>877.0337863706732</v>
+        <v>989.2111371632024</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27020,13 +27020,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>13.47203099177432</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>169.4629748145476</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>817.9294244105182</v>
+        <v>648.4664495959712</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27153,13 +27153,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27168,10 +27168,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>46.97513661859254</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>7.105427357601002e-14</v>
       </c>
     </row>
     <row r="3">
@@ -27266,13 +27266,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27870,10 +27870,10 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>330.7159945970437</v>
+        <v>335.3344319590698</v>
       </c>
       <c r="I8" t="n">
-        <v>177.5039450455104</v>
+        <v>194.8897433025113</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,16 +27900,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>96.14565227064932</v>
+        <v>124.4735337248049</v>
       </c>
       <c r="S8" t="n">
-        <v>189.5311081476601</v>
+        <v>199.8074554087044</v>
       </c>
       <c r="T8" t="n">
-        <v>219.3520018977613</v>
+        <v>221.3260977895977</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2772330761267</v>
+        <v>251.31331021407</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -27946,13 +27946,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>136.8859191967695</v>
+        <v>137.1272063286629</v>
       </c>
       <c r="H9" t="n">
-        <v>107.8160112448151</v>
+        <v>110.1463369659958</v>
       </c>
       <c r="I9" t="n">
-        <v>73.64161514719238</v>
+        <v>81.94908876720514</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27979,16 +27979,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>71.74662006079899</v>
+        <v>86.72758777607295</v>
       </c>
       <c r="S9" t="n">
-        <v>163.1834895780565</v>
+        <v>167.6652922252864</v>
       </c>
       <c r="T9" t="n">
-        <v>198.320287768684</v>
+        <v>199.2928442345173</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9112769516037</v>
+        <v>225.9271511050177</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -28025,19 +28025,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>167.6073445951065</v>
+        <v>167.8096316211258</v>
       </c>
       <c r="H10" t="n">
-        <v>158.8163107023621</v>
+        <v>160.6148262609702</v>
       </c>
       <c r="I10" t="n">
-        <v>143.9135313166281</v>
+        <v>149.996853880918</v>
       </c>
       <c r="J10" t="n">
-        <v>66.23620234766697</v>
+        <v>80.53789508723251</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>1.20018197938079</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -28055,19 +28055,19 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.03786320407803</v>
+        <v>70.97664317374989</v>
       </c>
       <c r="R10" t="n">
-        <v>160.0437773813481</v>
+        <v>169.139337660362</v>
       </c>
       <c r="S10" t="n">
-        <v>217.3308903883694</v>
+        <v>220.8562015599969</v>
       </c>
       <c r="T10" t="n">
-        <v>226.3064227121399</v>
+        <v>227.1707400051316</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2981038239444</v>
+        <v>286.3091376617273</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28089,28 +28089,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="C11" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="D11" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="E11" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="F11" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="G11" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="H11" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28140,25 +28140,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="T11" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="U11" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="V11" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="W11" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="X11" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Y11" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
     </row>
     <row r="12">
@@ -28247,76 +28247,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="C13" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="D13" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="E13" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="F13" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="G13" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="H13" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="I13" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="J13" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="K13" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="L13" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="M13" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="N13" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="O13" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="P13" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Q13" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="R13" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="S13" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="T13" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="U13" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="V13" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="W13" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="X13" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Y13" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
     </row>
     <row r="14">
@@ -28326,28 +28326,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="C14" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="D14" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="E14" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="F14" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="G14" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="H14" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28377,25 +28377,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="T14" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="U14" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="V14" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="W14" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="X14" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Y14" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
     </row>
     <row r="15">
@@ -28484,76 +28484,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="C16" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="D16" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="E16" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="F16" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="G16" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="H16" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="I16" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="J16" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="K16" t="n">
-        <v>46.97513661859182</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="L16" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859267</v>
       </c>
       <c r="M16" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="N16" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="O16" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="P16" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Q16" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="R16" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="S16" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="T16" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="U16" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="V16" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="W16" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="X16" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Y16" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
     </row>
     <row r="17">
@@ -28563,25 +28563,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>46.97513661859258</v>
+        <v>93.95027323718509</v>
       </c>
       <c r="C17" t="n">
-        <v>46.97513661859258</v>
+        <v>93.95027323718509</v>
       </c>
       <c r="D17" t="n">
-        <v>46.97513661859258</v>
+        <v>93.95027323718509</v>
       </c>
       <c r="E17" t="n">
-        <v>46.97513661859258</v>
+        <v>93.95027323718509</v>
       </c>
       <c r="F17" t="n">
-        <v>46.97513661859258</v>
+        <v>93.95027323718509</v>
       </c>
       <c r="G17" t="n">
-        <v>46.97513661859258</v>
+        <v>93.95027323718509</v>
       </c>
       <c r="H17" t="n">
-        <v>46.97513661859258</v>
+        <v>93.95027323718509</v>
       </c>
       <c r="I17" t="n">
         <v>41.57692977292595</v>
@@ -28614,25 +28614,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>46.97513661859258</v>
+        <v>93.95027323718509</v>
       </c>
       <c r="T17" t="n">
-        <v>46.97513661859258</v>
+        <v>93.95027323718509</v>
       </c>
       <c r="U17" t="n">
-        <v>46.97513661859258</v>
+        <v>93.95027323718509</v>
       </c>
       <c r="V17" t="n">
-        <v>46.97513661859258</v>
+        <v>93.95027323718509</v>
       </c>
       <c r="W17" t="n">
-        <v>46.97513661859258</v>
+        <v>93.95027323718509</v>
       </c>
       <c r="X17" t="n">
-        <v>46.97513661859258</v>
+        <v>93.95027323718509</v>
       </c>
       <c r="Y17" t="n">
-        <v>46.97513661859258</v>
+        <v>93.95027323718509</v>
       </c>
     </row>
     <row r="18">
@@ -28721,76 +28721,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>46.97513661859258</v>
+        <v>93.95027323718509</v>
       </c>
       <c r="C19" t="n">
-        <v>46.97513661859258</v>
+        <v>93.95027323718509</v>
       </c>
       <c r="D19" t="n">
-        <v>46.97513661859258</v>
+        <v>93.95027323718509</v>
       </c>
       <c r="E19" t="n">
-        <v>46.97513661859258</v>
+        <v>93.95027323718509</v>
       </c>
       <c r="F19" t="n">
-        <v>46.97513661859258</v>
+        <v>91.48995205464296</v>
       </c>
       <c r="G19" t="n">
-        <v>46.97513661859258</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>46.97513661859258</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>46.97513661859258</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>46.97513661859258</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>46.97513661859142</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>46.97513661859258</v>
+        <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>46.97513661859258</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>46.97513661859258</v>
+        <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>46.97513661859258</v>
+        <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>46.97513661859258</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>46.97513661859258</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>46.97513661859258</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S19" t="n">
-        <v>46.97513661859258</v>
+        <v>93.95027323718509</v>
       </c>
       <c r="T19" t="n">
-        <v>46.97513661859258</v>
+        <v>93.95027323718509</v>
       </c>
       <c r="U19" t="n">
-        <v>46.97513661859258</v>
+        <v>93.95027323718509</v>
       </c>
       <c r="V19" t="n">
-        <v>46.97513661859258</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>46.97513661859258</v>
+        <v>93.95027323718509</v>
       </c>
       <c r="X19" t="n">
-        <v>46.97513661859258</v>
+        <v>93.95027323718509</v>
       </c>
       <c r="Y19" t="n">
-        <v>46.97513661859258</v>
+        <v>93.95027323718509</v>
       </c>
     </row>
     <row r="20">
@@ -28800,28 +28800,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>46.97513661859258</v>
+        <v>93.95027323718509</v>
       </c>
       <c r="C20" t="n">
-        <v>46.97513661859258</v>
+        <v>93.95027323718509</v>
       </c>
       <c r="D20" t="n">
-        <v>46.97513661859258</v>
+        <v>93.95027323718509</v>
       </c>
       <c r="E20" t="n">
-        <v>46.97513661859258</v>
+        <v>93.95027323718509</v>
       </c>
       <c r="F20" t="n">
-        <v>46.97513661859258</v>
+        <v>93.95027323718509</v>
       </c>
       <c r="G20" t="n">
-        <v>46.97513661859258</v>
+        <v>93.95027323718509</v>
       </c>
       <c r="H20" t="n">
-        <v>46.97513661859258</v>
+        <v>93.95027323718509</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28851,25 +28851,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>46.97513661859258</v>
+        <v>93.95027323718509</v>
       </c>
       <c r="T20" t="n">
-        <v>46.97513661859258</v>
+        <v>93.95027323718509</v>
       </c>
       <c r="U20" t="n">
-        <v>46.97513661859258</v>
+        <v>93.95027323718509</v>
       </c>
       <c r="V20" t="n">
-        <v>46.97513661859258</v>
+        <v>93.95027323718509</v>
       </c>
       <c r="W20" t="n">
-        <v>46.97513661859258</v>
+        <v>93.95027323718509</v>
       </c>
       <c r="X20" t="n">
-        <v>46.97513661859258</v>
+        <v>93.95027323718509</v>
       </c>
       <c r="Y20" t="n">
-        <v>46.97513661859258</v>
+        <v>93.95027323718509</v>
       </c>
     </row>
     <row r="21">
@@ -28958,76 +28958,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>46.97513661859258</v>
+        <v>93.95027323718509</v>
       </c>
       <c r="C22" t="n">
-        <v>46.97513661859258</v>
+        <v>93.95027323718509</v>
       </c>
       <c r="D22" t="n">
-        <v>46.97513661859258</v>
+        <v>93.95027323718509</v>
       </c>
       <c r="E22" t="n">
-        <v>46.97513661859258</v>
+        <v>93.95027323718509</v>
       </c>
       <c r="F22" t="n">
-        <v>46.97513661859258</v>
+        <v>93.95027323718509</v>
       </c>
       <c r="G22" t="n">
-        <v>46.97513661859258</v>
+        <v>93.95027323718509</v>
       </c>
       <c r="H22" t="n">
-        <v>46.97513661859258</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>46.97513661859258</v>
+        <v>93.95027323718509</v>
       </c>
       <c r="J22" t="n">
-        <v>46.97513661859258</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>46.97513661859142</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>46.97513661859258</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>46.97513661859258</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>46.97513661859258</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>46.97513661859258</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>46.97513661859258</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>46.97513661859258</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>46.97513661859258</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>46.97513661859258</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>46.97513661859258</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>46.97513661859258</v>
+        <v>86.471831487505</v>
       </c>
       <c r="V22" t="n">
-        <v>46.97513661859258</v>
+        <v>93.95027323718509</v>
       </c>
       <c r="W22" t="n">
-        <v>46.97513661859258</v>
+        <v>93.95027323718509</v>
       </c>
       <c r="X22" t="n">
-        <v>46.97513661859258</v>
+        <v>93.95027323718509</v>
       </c>
       <c r="Y22" t="n">
-        <v>46.97513661859258</v>
+        <v>93.95027323718509</v>
       </c>
     </row>
     <row r="23">
@@ -29037,28 +29037,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>46.97513661859258</v>
+        <v>93.95027323718509</v>
       </c>
       <c r="C23" t="n">
-        <v>46.97513661859258</v>
+        <v>93.95027323718509</v>
       </c>
       <c r="D23" t="n">
-        <v>46.97513661859258</v>
+        <v>93.95027323718509</v>
       </c>
       <c r="E23" t="n">
-        <v>46.97513661859258</v>
+        <v>93.95027323718509</v>
       </c>
       <c r="F23" t="n">
-        <v>46.97513661859258</v>
+        <v>93.95027323718509</v>
       </c>
       <c r="G23" t="n">
-        <v>46.97513661859258</v>
+        <v>93.95027323718509</v>
       </c>
       <c r="H23" t="n">
-        <v>46.97513661859258</v>
+        <v>93.95027323718509</v>
       </c>
       <c r="I23" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -29088,25 +29088,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>46.97513661859258</v>
+        <v>93.95027323718509</v>
       </c>
       <c r="T23" t="n">
-        <v>46.97513661859258</v>
+        <v>93.95027323718509</v>
       </c>
       <c r="U23" t="n">
-        <v>46.97513661859258</v>
+        <v>93.95027323718509</v>
       </c>
       <c r="V23" t="n">
-        <v>46.97513661859258</v>
+        <v>93.95027323718509</v>
       </c>
       <c r="W23" t="n">
-        <v>46.97513661859258</v>
+        <v>93.95027323718509</v>
       </c>
       <c r="X23" t="n">
-        <v>46.97513661859258</v>
+        <v>93.95027323718509</v>
       </c>
       <c r="Y23" t="n">
-        <v>46.97513661859258</v>
+        <v>93.95027323718509</v>
       </c>
     </row>
     <row r="24">
@@ -29195,76 +29195,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>46.97513661859258</v>
+        <v>93.95027323718509</v>
       </c>
       <c r="C25" t="n">
-        <v>46.97513661859258</v>
+        <v>93.95027323718509</v>
       </c>
       <c r="D25" t="n">
-        <v>46.97513661859258</v>
+        <v>93.95027323718509</v>
       </c>
       <c r="E25" t="n">
-        <v>46.97513661859258</v>
+        <v>93.95027323718509</v>
       </c>
       <c r="F25" t="n">
-        <v>46.97513661859258</v>
+        <v>93.95027323718509</v>
       </c>
       <c r="G25" t="n">
-        <v>46.97513661859258</v>
+        <v>91.48995205464195</v>
       </c>
       <c r="H25" t="n">
-        <v>46.97513661859258</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>46.97513661859258</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>46.97513661859175</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>46.97513661859258</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>46.97513661859258</v>
+        <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>46.97513661859258</v>
+        <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>46.97513661859258</v>
+        <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>46.97513661859258</v>
+        <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>46.97513661859258</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>46.97513661859258</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>46.97513661859258</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S25" t="n">
-        <v>46.97513661859258</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>46.97513661859258</v>
+        <v>93.95027323718509</v>
       </c>
       <c r="U25" t="n">
-        <v>46.97513661859258</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>46.97513661859258</v>
+        <v>93.95027323718509</v>
       </c>
       <c r="W25" t="n">
-        <v>46.97513661859258</v>
+        <v>93.95027323718509</v>
       </c>
       <c r="X25" t="n">
-        <v>46.97513661859258</v>
+        <v>93.95027323718509</v>
       </c>
       <c r="Y25" t="n">
-        <v>46.97513661859258</v>
+        <v>93.95027323718509</v>
       </c>
     </row>
     <row r="26">
@@ -29511,25 +29511,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="C29" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="D29" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="E29" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="F29" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="G29" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="H29" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="I29" t="n">
         <v>41.57692977292595</v>
@@ -29562,25 +29562,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="T29" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="U29" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="V29" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="W29" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="X29" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="Y29" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859261</v>
       </c>
     </row>
     <row r="30">
@@ -29669,76 +29669,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="C31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="D31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="E31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="F31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="G31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="H31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="I31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="J31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="K31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="L31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="M31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="N31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="O31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="P31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="Q31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="R31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="S31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="T31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="U31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="V31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="W31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="X31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="Y31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859261</v>
       </c>
     </row>
     <row r="32">
@@ -29748,25 +29748,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>93.95027323718512</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C32" t="n">
-        <v>93.95027323718512</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D32" t="n">
-        <v>93.95027323718512</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E32" t="n">
-        <v>93.95027323718512</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F32" t="n">
-        <v>93.95027323718512</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G32" t="n">
-        <v>93.95027323718512</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H32" t="n">
-        <v>93.95027323718512</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I32" t="n">
         <v>41.57692977292595</v>
@@ -29799,25 +29799,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>93.95027323718512</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T32" t="n">
-        <v>93.95027323718512</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U32" t="n">
-        <v>93.95027323718512</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V32" t="n">
-        <v>93.95027323718512</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W32" t="n">
-        <v>93.95027323718512</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X32" t="n">
-        <v>93.95027323718512</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y32" t="n">
-        <v>93.95027323718512</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="33">
@@ -29906,76 +29906,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>93.95027323718512</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C34" t="n">
-        <v>93.95027323718512</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F34" t="n">
-        <v>93.95027323718512</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G34" t="n">
-        <v>91.48995205464246</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H34" t="n">
-        <v>93.95027323718512</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I34" t="n">
-        <v>93.95027323718512</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>46.97513661859222</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="R34" t="n">
-        <v>88.93215267004733</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="S34" t="n">
-        <v>93.95027323718512</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T34" t="n">
-        <v>93.95027323718512</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U34" t="n">
-        <v>93.95027323718512</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X34" t="n">
-        <v>93.95027323718512</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y34" t="n">
-        <v>93.95027323718512</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="35">
@@ -29985,25 +29985,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>93.95027323718512</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C35" t="n">
-        <v>93.95027323718512</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D35" t="n">
-        <v>93.95027323718512</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E35" t="n">
-        <v>93.95027323718512</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F35" t="n">
-        <v>93.95027323718512</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G35" t="n">
-        <v>93.95027323718512</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H35" t="n">
-        <v>93.95027323718512</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I35" t="n">
         <v>41.57692977292595</v>
@@ -30036,25 +30036,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>93.95027323718512</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T35" t="n">
-        <v>93.95027323718512</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U35" t="n">
-        <v>93.95027323718512</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V35" t="n">
-        <v>93.95027323718512</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W35" t="n">
-        <v>93.95027323718512</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X35" t="n">
-        <v>93.95027323718512</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y35" t="n">
-        <v>93.95027323718512</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="36">
@@ -30143,76 +30143,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C37" t="n">
-        <v>93.95027323718512</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D37" t="n">
-        <v>93.95027323718512</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E37" t="n">
-        <v>93.95027323718512</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F37" t="n">
-        <v>93.95027323718512</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G37" t="n">
-        <v>93.95027323718512</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H37" t="n">
-        <v>93.95027323718512</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I37" t="n">
-        <v>93.95027323718512</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N37" t="n">
-        <v>0</v>
+        <v>46.97513661859244</v>
       </c>
       <c r="O37" t="n">
-        <v>0</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="R37" t="n">
-        <v>88.93215267004733</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="S37" t="n">
-        <v>91.4899520546426</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T37" t="n">
-        <v>93.95027323718512</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U37" t="n">
-        <v>93.95027323718512</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W37" t="n">
-        <v>93.95027323718512</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="38">
@@ -30222,25 +30222,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>93.95027323718512</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C38" t="n">
-        <v>93.95027323718512</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D38" t="n">
-        <v>93.95027323718512</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E38" t="n">
-        <v>93.95027323718512</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F38" t="n">
-        <v>93.95027323718512</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G38" t="n">
-        <v>93.95027323718512</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H38" t="n">
-        <v>93.95027323718512</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I38" t="n">
         <v>41.57692977292595</v>
@@ -30273,25 +30273,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>93.95027323718512</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T38" t="n">
-        <v>93.95027323718512</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U38" t="n">
-        <v>93.95027323718512</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V38" t="n">
-        <v>93.95027323718512</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W38" t="n">
-        <v>93.95027323718512</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X38" t="n">
-        <v>93.95027323718512</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y38" t="n">
-        <v>93.95027323718512</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="39">
@@ -30380,76 +30380,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>93.95027323718512</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C40" t="n">
-        <v>93.95027323718512</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E40" t="n">
-        <v>93.95027323718512</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F40" t="n">
-        <v>93.95027323718512</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G40" t="n">
-        <v>93.95027323718512</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I40" t="n">
-        <v>93.95027323718512</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M40" t="n">
-        <v>0</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N40" t="n">
-        <v>0</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O40" t="n">
-        <v>0</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="S40" t="n">
-        <v>93.95027323718512</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T40" t="n">
-        <v>93.95027323718512</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U40" t="n">
-        <v>86.47183148750455</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V40" t="n">
-        <v>93.95027323718512</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X40" t="n">
-        <v>93.95027323718512</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y40" t="n">
-        <v>93.95027323718512</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="41">
@@ -30459,25 +30459,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="C41" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="D41" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="E41" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="F41" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="G41" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="H41" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="I41" t="n">
         <v>41.57692977292595</v>
@@ -30510,25 +30510,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="T41" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="U41" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="V41" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="W41" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="X41" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="Y41" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
     </row>
     <row r="42">
@@ -30617,76 +30617,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="C43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="D43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="E43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="F43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="G43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="H43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="I43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="J43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="K43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="L43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="M43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="N43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="O43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="P43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="Q43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="R43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="S43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="T43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="U43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="V43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="W43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="X43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="Y43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
     </row>
     <row r="44">
@@ -30696,25 +30696,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="C44" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="D44" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="E44" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="F44" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="G44" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="H44" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="I44" t="n">
         <v>41.57692977292595</v>
@@ -30747,25 +30747,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="T44" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="U44" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="V44" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="W44" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="X44" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="Y44" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
     </row>
     <row r="45">
@@ -30854,76 +30854,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="C46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="D46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="E46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="F46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="G46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="H46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="I46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="J46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="K46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="L46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="M46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="N46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="O46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="P46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="Q46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="R46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="S46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="T46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="U46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="V46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="W46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="X46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="Y46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
     </row>
   </sheetData>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.8552478963723608</v>
+        <v>0.4042836720807874</v>
       </c>
       <c r="H8" t="n">
-        <v>8.758807518723442</v>
+        <v>4.140370156697365</v>
       </c>
       <c r="I8" t="n">
-        <v>32.97194452489547</v>
+        <v>15.58614626789457</v>
       </c>
       <c r="J8" t="n">
-        <v>72.58809614473373</v>
+        <v>34.31307131326676</v>
       </c>
       <c r="K8" t="n">
-        <v>108.7907395981758</v>
+        <v>51.42639915244651</v>
       </c>
       <c r="L8" t="n">
-        <v>134.9645324067814</v>
+        <v>63.79899558188892</v>
       </c>
       <c r="M8" t="n">
-        <v>150.1740471838934</v>
+        <v>70.98867533525562</v>
       </c>
       <c r="N8" t="n">
-        <v>152.6040202694614</v>
+        <v>72.13734631855516</v>
       </c>
       <c r="O8" t="n">
-        <v>144.0996489999087</v>
+        <v>68.11725055430182</v>
       </c>
       <c r="P8" t="n">
-        <v>122.985716558216</v>
+        <v>58.13649739980738</v>
       </c>
       <c r="Q8" t="n">
-        <v>92.35715126938084</v>
+        <v>43.65808839341416</v>
       </c>
       <c r="R8" t="n">
-        <v>53.72346567050035</v>
+        <v>25.39558421634479</v>
       </c>
       <c r="S8" t="n">
-        <v>19.48896143858519</v>
+        <v>9.212614177540953</v>
       </c>
       <c r="T8" t="n">
-        <v>3.743847666370011</v>
+        <v>1.769751774533648</v>
       </c>
       <c r="U8" t="n">
-        <v>0.06841983170978885</v>
+        <v>0.03234269376646299</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.4575979664411177</v>
+        <v>0.2163108345477536</v>
       </c>
       <c r="H9" t="n">
-        <v>4.419432991681322</v>
+        <v>2.089107270500673</v>
       </c>
       <c r="I9" t="n">
-        <v>15.7550177042227</v>
+        <v>7.447544084209937</v>
       </c>
       <c r="J9" t="n">
-        <v>43.23297278556193</v>
+        <v>20.43663020611035</v>
       </c>
       <c r="K9" t="n">
-        <v>73.89203653711681</v>
+        <v>34.92945612080984</v>
       </c>
       <c r="L9" t="n">
-        <v>99.35696196784006</v>
+        <v>46.96696431704623</v>
       </c>
       <c r="M9" t="n">
-        <v>115.9448882513306</v>
+        <v>54.80823206940229</v>
       </c>
       <c r="N9" t="n">
-        <v>119.0136044385607</v>
+        <v>56.2588428852949</v>
       </c>
       <c r="O9" t="n">
-        <v>108.8741968663654</v>
+        <v>51.46585018294731</v>
       </c>
       <c r="P9" t="n">
-        <v>87.38114150400608</v>
+        <v>41.30588208131621</v>
       </c>
       <c r="Q9" t="n">
-        <v>58.41197901448373</v>
+        <v>27.61188828367465</v>
       </c>
       <c r="R9" t="n">
-        <v>28.41121409184414</v>
+        <v>13.43024637657018</v>
       </c>
       <c r="S9" t="n">
-        <v>8.499681525781282</v>
+        <v>4.017878878551472</v>
       </c>
       <c r="T9" t="n">
-        <v>1.844440926137662</v>
+        <v>0.8718844603043221</v>
       </c>
       <c r="U9" t="n">
-        <v>0.03010512937112618</v>
+        <v>0.01423097595708906</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.3836347633522744</v>
+        <v>0.1813477373329599</v>
       </c>
       <c r="H10" t="n">
-        <v>3.410861805077496</v>
+        <v>1.612346246469408</v>
       </c>
       <c r="I10" t="n">
-        <v>11.53694361063022</v>
+        <v>5.453621046340286</v>
       </c>
       <c r="J10" t="n">
-        <v>27.1229777690058</v>
+        <v>12.82128502944026</v>
       </c>
       <c r="K10" t="n">
-        <v>44.57138432401878</v>
+        <v>21.06930984650206</v>
       </c>
       <c r="L10" t="n">
-        <v>57.03602654420997</v>
+        <v>26.96146269402933</v>
       </c>
       <c r="M10" t="n">
-        <v>60.13649294984788</v>
+        <v>28.42708213483843</v>
       </c>
       <c r="N10" t="n">
-        <v>58.70658155917126</v>
+        <v>27.75114965932469</v>
       </c>
       <c r="O10" t="n">
-        <v>54.22503000546513</v>
+        <v>25.63267836411692</v>
       </c>
       <c r="P10" t="n">
-        <v>46.39888083307869</v>
+        <v>21.93318452252452</v>
       </c>
       <c r="Q10" t="n">
-        <v>32.12418004761636</v>
+        <v>15.18540007794449</v>
       </c>
       <c r="R10" t="n">
-        <v>17.24961399582135</v>
+        <v>8.154053716807448</v>
       </c>
       <c r="S10" t="n">
-        <v>6.685707648602816</v>
+        <v>3.160396476975309</v>
       </c>
       <c r="T10" t="n">
-        <v>1.639166716141536</v>
+        <v>0.7748494231499193</v>
       </c>
       <c r="U10" t="n">
-        <v>0.02092553254648772</v>
+        <v>0.009891694763616005</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,43 +31752,43 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H11" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I11" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J11" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K11" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R11" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T11" t="n">
         <v>19.1778794245112</v>
@@ -31837,40 +31837,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I12" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K12" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O12" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q12" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R12" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U12" t="n">
         <v>0.1542136840462215</v>
@@ -31910,13 +31910,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H13" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I13" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J13" t="n">
         <v>138.937596729739</v>
@@ -31925,16 +31925,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L13" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M13" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P13" t="n">
         <v>237.6785118802169</v>
@@ -31943,16 +31943,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,43 +31989,43 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H14" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I14" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J14" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K14" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R14" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T14" t="n">
         <v>19.1778794245112</v>
@@ -32074,40 +32074,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I15" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K15" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233479</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O15" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R15" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U15" t="n">
         <v>0.1542136840462215</v>
@@ -32147,13 +32147,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H16" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I16" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J16" t="n">
         <v>138.937596729739</v>
@@ -32162,16 +32162,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L16" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M16" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P16" t="n">
         <v>237.6785118802169</v>
@@ -32180,16 +32180,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H20" t="n">
         <v>44.86703772844668</v>
@@ -32472,40 +32472,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J20" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K20" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L20" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M20" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N20" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O20" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P20" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q20" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R20" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S20" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T20" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U20" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,46 +32542,46 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H21" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I21" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K21" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O21" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q21" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R21" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S21" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T21" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U21" t="n">
         <v>0.1542136840462215</v>
@@ -32624,43 +32624,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H22" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I22" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J22" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K22" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L22" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M22" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N22" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O22" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P22" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q22" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R22" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S22" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T22" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U22" t="n">
         <v>0.1071911508780295</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H23" t="n">
         <v>44.86703772844668</v>
@@ -32709,40 +32709,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J23" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K23" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L23" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M23" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N23" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O23" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P23" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q23" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R23" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S23" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T23" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U23" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,46 +32779,46 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H24" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I24" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J24" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K24" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L24" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M24" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N24" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O24" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P24" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q24" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R24" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S24" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T24" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U24" t="n">
         <v>0.1542136840462215</v>
@@ -32861,43 +32861,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H25" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I25" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J25" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K25" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L25" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M25" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N25" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O25" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P25" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q25" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R25" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S25" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T25" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U25" t="n">
         <v>0.1071911508780295</v>
@@ -33043,7 +33043,7 @@
         <v>557.708647897025</v>
       </c>
       <c r="P27" t="n">
-        <v>447.6103584002924</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q27" t="n">
         <v>299.2156706987487</v>
@@ -33274,7 +33274,7 @@
         <v>593.9283018233475</v>
       </c>
       <c r="N30" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O30" t="n">
         <v>557.708647897025</v>
@@ -33897,7 +33897,7 @@
         <v>371.8329054953988</v>
       </c>
       <c r="K38" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003818</v>
       </c>
       <c r="L38" t="n">
         <v>691.3565293623194</v>
@@ -33994,7 +33994,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R39" t="n">
         <v>145.5365940905541</v>
@@ -34231,7 +34231,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R42" t="n">
         <v>145.5365940905541</v>
@@ -34386,7 +34386,7 @@
         <v>738.1512123099059</v>
       </c>
       <c r="P44" t="n">
-        <v>629.994981974641</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q44" t="n">
         <v>473.099994678169</v>
@@ -34468,7 +34468,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R45" t="n">
         <v>145.5365940905541</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N11" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O11" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P11" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K12" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P12" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>92.55355323165878</v>
+        <v>92.55355323165877</v>
       </c>
       <c r="K13" t="n">
         <v>253.0227961629121</v>
@@ -35576,7 +35576,7 @@
         <v>366.7325087887907</v>
       </c>
       <c r="M13" t="n">
-        <v>394.6085160120763</v>
+        <v>394.6085160120764</v>
       </c>
       <c r="N13" t="n">
         <v>391.8320827861326</v>
@@ -35585,7 +35585,7 @@
         <v>349.3282668412323</v>
       </c>
       <c r="P13" t="n">
-        <v>281.9322077637029</v>
+        <v>281.932207763703</v>
       </c>
       <c r="Q13" t="n">
         <v>125.3693751564862</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N14" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O14" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P14" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K15" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013295</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P15" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,13 +35804,13 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>92.55355323165878</v>
+        <v>92.55355323165877</v>
       </c>
       <c r="K16" t="n">
-        <v>253.0227961629113</v>
+        <v>253.0227961629121</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7325087887907</v>
+        <v>366.7325087887908</v>
       </c>
       <c r="M16" t="n">
         <v>394.6085160120764</v>
@@ -35822,7 +35822,7 @@
         <v>349.3282668412323</v>
       </c>
       <c r="P16" t="n">
-        <v>281.9322077637029</v>
+        <v>281.932207763703</v>
       </c>
       <c r="Q16" t="n">
         <v>125.3693751564862</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>92.55355323165881</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K19" t="n">
-        <v>253.022796162911</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7325087887907</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M19" t="n">
-        <v>394.6085160120764</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N19" t="n">
-        <v>391.8320827861327</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O19" t="n">
-        <v>349.3282668412323</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P19" t="n">
-        <v>281.932207763703</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.3693751564862</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K20" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865553997</v>
       </c>
       <c r="L20" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M20" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N20" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O20" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P20" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q20" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R20" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,25 +36199,25 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K21" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O21" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P21" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q21" t="n">
         <v>159.2338966127272</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>92.55355323165881</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K22" t="n">
-        <v>253.022796162911</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7325087887907</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M22" t="n">
-        <v>394.6085160120764</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N22" t="n">
-        <v>391.8320827861327</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O22" t="n">
-        <v>349.3282668412323</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P22" t="n">
-        <v>281.932207763703</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3693751564862</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36357,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>244.1308004512936</v>
+        <v>244.1308004512929</v>
       </c>
       <c r="K23" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L23" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M23" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N23" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O23" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P23" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q23" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R23" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,25 +36436,25 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K24" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L24" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M24" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N24" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O24" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P24" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q24" t="n">
         <v>159.2338966127272</v>
@@ -36515,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>92.55355323165797</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K25" t="n">
-        <v>253.0227961629122</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7325087887907</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M25" t="n">
-        <v>394.6085160120764</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N25" t="n">
-        <v>391.8320827861327</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O25" t="n">
-        <v>349.3282668412323</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P25" t="n">
-        <v>281.932207763703</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3693751564862</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36594,10 +36594,10 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K26" t="n">
-        <v>337.1912865554005</v>
+        <v>614.4119707098149</v>
       </c>
       <c r="L26" t="n">
         <v>455.5901143923322</v>
@@ -36615,10 +36615,10 @@
         <v>398.7619862193719</v>
       </c>
       <c r="Q26" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R26" t="n">
-        <v>112.9569980248061</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36691,7 +36691,7 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P27" t="n">
-        <v>313.6359509859622</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q27" t="n">
         <v>159.2338966127272</v>
@@ -36752,7 +36752,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>92.55355323165877</v>
+        <v>92.55355323165875</v>
       </c>
       <c r="K28" t="n">
         <v>253.0227961629121</v>
@@ -36831,16 +36831,16 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K29" t="n">
-        <v>337.1912865554005</v>
+        <v>614.4119707098149</v>
       </c>
       <c r="L29" t="n">
         <v>455.5901143923322</v>
       </c>
       <c r="M29" t="n">
-        <v>592.2649153128079</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N29" t="n">
         <v>552.3018354129115</v>
@@ -36852,10 +36852,10 @@
         <v>398.7619862193719</v>
       </c>
       <c r="Q29" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R29" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36922,7 +36922,7 @@
         <v>451.7942679013292</v>
       </c>
       <c r="N30" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O30" t="n">
         <v>415.1124034525806</v>
@@ -36989,10 +36989,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>92.55355323165875</v>
+        <v>92.55355323165884</v>
       </c>
       <c r="K31" t="n">
-        <v>253.0227961629121</v>
+        <v>253.0227961629122</v>
       </c>
       <c r="L31" t="n">
         <v>366.7325087887907</v>
@@ -37001,16 +37001,16 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N31" t="n">
-        <v>391.8320827861326</v>
+        <v>391.8320827861327</v>
       </c>
       <c r="O31" t="n">
-        <v>349.3282668412323</v>
+        <v>349.3282668412324</v>
       </c>
       <c r="P31" t="n">
         <v>281.932207763703</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.3693751564862</v>
+        <v>125.3693751564863</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37068,16 +37068,16 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>190.7870009687126</v>
+        <v>203.4751702124582</v>
       </c>
       <c r="K32" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L32" t="n">
         <v>455.5901143923322</v>
       </c>
       <c r="M32" t="n">
-        <v>592.2649153128079</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N32" t="n">
         <v>552.3018354129115</v>
@@ -37086,13 +37086,13 @@
         <v>508.0530008882191</v>
       </c>
       <c r="P32" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q32" t="n">
         <v>250.7943048037195</v>
       </c>
       <c r="R32" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37226,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>45.57841661306622</v>
+        <v>92.55355323165844</v>
       </c>
       <c r="K34" t="n">
-        <v>206.0476595443196</v>
+        <v>253.0227961629121</v>
       </c>
       <c r="L34" t="n">
-        <v>319.7573721701981</v>
+        <v>366.7325087887907</v>
       </c>
       <c r="M34" t="n">
-        <v>347.6333793934838</v>
+        <v>394.6085160120764</v>
       </c>
       <c r="N34" t="n">
-        <v>344.8569461675401</v>
+        <v>391.8320827861327</v>
       </c>
       <c r="O34" t="n">
-        <v>302.3531302226398</v>
+        <v>349.3282668412323</v>
       </c>
       <c r="P34" t="n">
-        <v>234.9570711451104</v>
+        <v>281.932207763703</v>
       </c>
       <c r="Q34" t="n">
-        <v>78.39423853789366</v>
+        <v>125.3693751564862</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37463,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>45.57841661306622</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K37" t="n">
-        <v>206.0476595443196</v>
+        <v>253.0227961629121</v>
       </c>
       <c r="L37" t="n">
-        <v>319.7573721701981</v>
+        <v>366.7325087887907</v>
       </c>
       <c r="M37" t="n">
-        <v>347.6333793934838</v>
+        <v>394.6085160120764</v>
       </c>
       <c r="N37" t="n">
-        <v>344.8569461675401</v>
+        <v>391.8320827861325</v>
       </c>
       <c r="O37" t="n">
-        <v>302.3531302226398</v>
+        <v>349.3282668412323</v>
       </c>
       <c r="P37" t="n">
-        <v>234.9570711451104</v>
+        <v>281.932207763703</v>
       </c>
       <c r="Q37" t="n">
-        <v>78.39423853789366</v>
+        <v>125.3693751564862</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37545,7 +37545,7 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K38" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554013</v>
       </c>
       <c r="L38" t="n">
         <v>455.5901143923322</v>
@@ -37566,7 +37566,7 @@
         <v>250.7943048037195</v>
       </c>
       <c r="R38" t="n">
-        <v>59.61319854222572</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37642,7 +37642,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37700,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>45.57841661306622</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K40" t="n">
-        <v>206.0476595443196</v>
+        <v>253.0227961629121</v>
       </c>
       <c r="L40" t="n">
-        <v>319.7573721701981</v>
+        <v>366.7325087887907</v>
       </c>
       <c r="M40" t="n">
-        <v>347.6333793934838</v>
+        <v>394.6085160120764</v>
       </c>
       <c r="N40" t="n">
-        <v>344.8569461675401</v>
+        <v>391.8320827861327</v>
       </c>
       <c r="O40" t="n">
-        <v>302.3531302226398</v>
+        <v>349.3282668412323</v>
       </c>
       <c r="P40" t="n">
-        <v>234.9570711451104</v>
+        <v>281.932207763703</v>
       </c>
       <c r="Q40" t="n">
-        <v>78.39423853789366</v>
+        <v>125.3693751564862</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37779,7 +37779,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687129</v>
       </c>
       <c r="K41" t="n">
         <v>337.1912865554005</v>
@@ -37879,7 +37879,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37937,10 +37937,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>92.55355323165878</v>
+        <v>92.55355323165881</v>
       </c>
       <c r="K43" t="n">
-        <v>253.0227961629121</v>
+        <v>253.0227961629122</v>
       </c>
       <c r="L43" t="n">
         <v>366.7325087887907</v>
@@ -38034,7 +38034,7 @@
         <v>508.0530008882191</v>
       </c>
       <c r="P44" t="n">
-        <v>398.7619862193715</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q44" t="n">
         <v>250.7943048037195</v>
@@ -38116,7 +38116,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38174,25 +38174,25 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>92.55355323165878</v>
+        <v>92.55355323165873</v>
       </c>
       <c r="K46" t="n">
         <v>253.0227961629121</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7325087887907</v>
+        <v>366.7325087887906</v>
       </c>
       <c r="M46" t="n">
-        <v>394.6085160120764</v>
+        <v>394.6085160120763</v>
       </c>
       <c r="N46" t="n">
-        <v>391.8320827861327</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O46" t="n">
         <v>349.3282668412323</v>
       </c>
       <c r="P46" t="n">
-        <v>281.932207763703</v>
+        <v>281.9322077637029</v>
       </c>
       <c r="Q46" t="n">
         <v>125.3693751564862</v>
